--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O587"/>
+  <dimension ref="A1:O595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25717,6 +25717,408 @@
         </is>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:12:12+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>366.2837037037037</v>
+      </c>
+      <c r="C588" t="n">
+        <v>363.791052631579</v>
+      </c>
+      <c r="D588" t="n">
+        <v>364.5518181818182</v>
+      </c>
+      <c r="E588" t="n">
+        <v>366.5311111111111</v>
+      </c>
+      <c r="F588" t="n">
+        <v>357.09</v>
+      </c>
+      <c r="G588" t="n">
+        <v>340.3714285714286</v>
+      </c>
+      <c r="H588" t="n">
+        <v>341.6477419354839</v>
+      </c>
+      <c r="I588" t="n">
+        <v>336.7066666666667</v>
+      </c>
+      <c r="J588" t="n">
+        <v>341.4057142857143</v>
+      </c>
+      <c r="K588" t="n">
+        <v>381.3611111111111</v>
+      </c>
+      <c r="L588" t="n">
+        <v>377.755</v>
+      </c>
+      <c r="M588" t="n">
+        <v>351.65</v>
+      </c>
+      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>383.7714814814815</v>
+      </c>
+      <c r="C589" t="n">
+        <v>385.1768421052632</v>
+      </c>
+      <c r="D589" t="n">
+        <v>385.53</v>
+      </c>
+      <c r="E589" t="n">
+        <v>378.4944444444445</v>
+      </c>
+      <c r="F589" t="n">
+        <v>381.28</v>
+      </c>
+      <c r="G589" t="n">
+        <v>372.2271428571429</v>
+      </c>
+      <c r="H589" t="n">
+        <v>357.9551612903226</v>
+      </c>
+      <c r="I589" t="n">
+        <v>366.9466666666667</v>
+      </c>
+      <c r="J589" t="n">
+        <v>355.3385714285715</v>
+      </c>
+      <c r="K589" t="n">
+        <v>378.4744444444444</v>
+      </c>
+      <c r="L589" t="n">
+        <v>386.56</v>
+      </c>
+      <c r="M589" t="n">
+        <v>392.7578260869565</v>
+      </c>
+      <c r="N589" t="n">
+        <v>402.8978260869565</v>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>349.8518518518518</v>
+      </c>
+      <c r="C590" t="n">
+        <v>351.58</v>
+      </c>
+      <c r="D590" t="n">
+        <v>358.8418181818182</v>
+      </c>
+      <c r="E590" t="n">
+        <v>367.1355555555555</v>
+      </c>
+      <c r="F590" t="n">
+        <v>358.2</v>
+      </c>
+      <c r="G590" t="n">
+        <v>371.91</v>
+      </c>
+      <c r="H590" t="n">
+        <v>319.7712903225807</v>
+      </c>
+      <c r="I590" t="n">
+        <v>339.4633333333333</v>
+      </c>
+      <c r="J590" t="n">
+        <v>357.72</v>
+      </c>
+      <c r="K590" t="n">
+        <v>374.7855555555556</v>
+      </c>
+      <c r="L590" t="n">
+        <v>365.485</v>
+      </c>
+      <c r="M590" t="n">
+        <v>367.8752173913044</v>
+      </c>
+      <c r="N590" t="n">
+        <v>366.5952173913044</v>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>353.1181481481482</v>
+      </c>
+      <c r="C591" t="n">
+        <v>345.101052631579</v>
+      </c>
+      <c r="D591" t="n">
+        <v>359.509090909091</v>
+      </c>
+      <c r="E591" t="n">
+        <v>365.5444444444445</v>
+      </c>
+      <c r="F591" t="n">
+        <v>365.8</v>
+      </c>
+      <c r="G591" t="n">
+        <v>371.9628571428572</v>
+      </c>
+      <c r="H591" t="n">
+        <v>314.5374193548387</v>
+      </c>
+      <c r="I591" t="n">
+        <v>340.3266666666667</v>
+      </c>
+      <c r="J591" t="n">
+        <v>354.6214285714286</v>
+      </c>
+      <c r="K591" t="n">
+        <v>373.2944444444445</v>
+      </c>
+      <c r="L591" t="n">
+        <v>358.915</v>
+      </c>
+      <c r="M591" t="n">
+        <v>362.0630434782609</v>
+      </c>
+      <c r="N591" t="n">
+        <v>361.7630434782609</v>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>371.6137037037037</v>
+      </c>
+      <c r="C592" t="n">
+        <v>372.2747368421053</v>
+      </c>
+      <c r="D592" t="n">
+        <v>370.5445454545454</v>
+      </c>
+      <c r="E592" t="n">
+        <v>375.1211111111111</v>
+      </c>
+      <c r="F592" t="n">
+        <v>377.91</v>
+      </c>
+      <c r="G592" t="n">
+        <v>376.8585714285715</v>
+      </c>
+      <c r="H592" t="inlineStr"/>
+      <c r="I592" t="n">
+        <v>371.0466666666667</v>
+      </c>
+      <c r="J592" t="n">
+        <v>360.0342857142857</v>
+      </c>
+      <c r="K592" t="n">
+        <v>373.0211111111111</v>
+      </c>
+      <c r="L592" t="n">
+        <v>385.1</v>
+      </c>
+      <c r="M592" t="n">
+        <v>393.0765217391304</v>
+      </c>
+      <c r="N592" t="n">
+        <v>392.0065217391305</v>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>361.8888888888889</v>
+      </c>
+      <c r="C593" t="n">
+        <v>356.2736842105263</v>
+      </c>
+      <c r="D593" t="n">
+        <v>367.7372727272728</v>
+      </c>
+      <c r="E593" t="n">
+        <v>373.6866666666667</v>
+      </c>
+      <c r="F593" t="n">
+        <v>367.63</v>
+      </c>
+      <c r="G593" t="n">
+        <v>371.11</v>
+      </c>
+      <c r="H593" t="n">
+        <v>325.5677419354839</v>
+      </c>
+      <c r="I593" t="n">
+        <v>345.53</v>
+      </c>
+      <c r="J593" t="n">
+        <v>361.98</v>
+      </c>
+      <c r="K593" t="n">
+        <v>380.8266666666667</v>
+      </c>
+      <c r="L593" t="n">
+        <v>368.355</v>
+      </c>
+      <c r="M593" t="n">
+        <v>371.8226086956522</v>
+      </c>
+      <c r="N593" t="n">
+        <v>372.7726086956522</v>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>375.9051851851852</v>
+      </c>
+      <c r="C594" t="n">
+        <v>374.34</v>
+      </c>
+      <c r="D594" t="n">
+        <v>373.620909090909</v>
+      </c>
+      <c r="E594" t="n">
+        <v>383.3955555555555</v>
+      </c>
+      <c r="F594" t="n">
+        <v>382.07</v>
+      </c>
+      <c r="G594" t="n">
+        <v>381.5028571428572</v>
+      </c>
+      <c r="H594" t="n">
+        <v>373.2067741935484</v>
+      </c>
+      <c r="I594" t="n">
+        <v>371.0333333333333</v>
+      </c>
+      <c r="J594" t="n">
+        <v>361.1914285714286</v>
+      </c>
+      <c r="K594" t="n">
+        <v>384.1655555555556</v>
+      </c>
+      <c r="L594" t="n">
+        <v>387.92</v>
+      </c>
+      <c r="M594" t="n">
+        <v>391.185652173913</v>
+      </c>
+      <c r="N594" t="n">
+        <v>395.6256521739131</v>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>377.4422222222223</v>
+      </c>
+      <c r="C595" t="n">
+        <v>385.0221052631579</v>
+      </c>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="n">
+        <v>383.2866666666667</v>
+      </c>
+      <c r="F595" t="n">
+        <v>388.68</v>
+      </c>
+      <c r="G595" t="n">
+        <v>390.7</v>
+      </c>
+      <c r="H595" t="n">
+        <v>372.1187096774193</v>
+      </c>
+      <c r="I595" t="n">
+        <v>367.76</v>
+      </c>
+      <c r="J595" t="n">
+        <v>375.33</v>
+      </c>
+      <c r="K595" t="n">
+        <v>393.9766666666667</v>
+      </c>
+      <c r="L595" t="n">
+        <v>386.49</v>
+      </c>
+      <c r="M595" t="n">
+        <v>376.1343478260869</v>
+      </c>
+      <c r="N595" t="n">
+        <v>378.0743478260869</v>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25728,7 +26130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31676,6 +32078,86 @@
       </c>
       <c r="B594" t="n">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -31844,28 +32326,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3852462976202073</v>
+        <v>-0.3082065663597623</v>
       </c>
       <c r="J2" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0216197799092388</v>
+        <v>0.0141055435605455</v>
       </c>
       <c r="M2" t="n">
-        <v>14.41864457953169</v>
+        <v>14.46570963345452</v>
       </c>
       <c r="N2" t="n">
-        <v>370.8116508897543</v>
+        <v>374.1036554325148</v>
       </c>
       <c r="O2" t="n">
-        <v>19.25647036426339</v>
+        <v>19.34175936755793</v>
       </c>
       <c r="P2" t="n">
-        <v>356.3395335125522</v>
+        <v>355.6054964067414</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31915,28 +32397,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.3739308510405074</v>
+        <v>0.504084995254317</v>
       </c>
       <c r="J3" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K3" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007802588448642789</v>
+        <v>0.01433368883999531</v>
       </c>
       <c r="M3" t="n">
-        <v>26.58169992688644</v>
+        <v>26.79001721392131</v>
       </c>
       <c r="N3" t="n">
-        <v>1007.176566889789</v>
+        <v>1013.023657050828</v>
       </c>
       <c r="O3" t="n">
-        <v>31.73604523077487</v>
+        <v>31.82803256644727</v>
       </c>
       <c r="P3" t="n">
-        <v>322.9314125889963</v>
+        <v>321.7411669631346</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31992,28 +32474,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09268637934478337</v>
+        <v>0.1277129138432895</v>
       </c>
       <c r="J4" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K4" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00138644038897795</v>
+        <v>0.002692231530500577</v>
       </c>
       <c r="M4" t="n">
-        <v>14.67834369494965</v>
+        <v>14.62952617260003</v>
       </c>
       <c r="N4" t="n">
-        <v>343.9701964515146</v>
+        <v>341.8190234596336</v>
       </c>
       <c r="O4" t="n">
-        <v>18.54643352376717</v>
+        <v>18.48834831615939</v>
       </c>
       <c r="P4" t="n">
-        <v>354.4733546360501</v>
+        <v>354.1461295842049</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32069,28 +32551,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1553460734841816</v>
+        <v>0.1978578799691361</v>
       </c>
       <c r="J5" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K5" t="n">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00487115338134092</v>
+        <v>0.008082621687973135</v>
       </c>
       <c r="M5" t="n">
-        <v>12.95849082132216</v>
+        <v>12.95871374992557</v>
       </c>
       <c r="N5" t="n">
-        <v>273.4587698967329</v>
+        <v>271.9691153769361</v>
       </c>
       <c r="O5" t="n">
-        <v>16.53658882287193</v>
+        <v>16.49148614822012</v>
       </c>
       <c r="P5" t="n">
-        <v>357.8412933902853</v>
+        <v>357.4431936557808</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32146,28 +32628,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01956419187243949</v>
+        <v>0.03616674222599325</v>
       </c>
       <c r="J6" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L6" t="n">
-        <v>6.539948055550582e-05</v>
+        <v>0.0002277755468865772</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8110191477211</v>
+        <v>13.83279140073703</v>
       </c>
       <c r="N6" t="n">
-        <v>320.4564274385338</v>
+        <v>321.1588192652187</v>
       </c>
       <c r="O6" t="n">
-        <v>17.90129680884974</v>
+        <v>17.92090453256248</v>
       </c>
       <c r="P6" t="n">
-        <v>356.9437946293074</v>
+        <v>356.4200267530775</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32223,28 +32705,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07410564073490115</v>
+        <v>-0.03447770968177521</v>
       </c>
       <c r="J7" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K7" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001187179361777591</v>
+        <v>0.0002619286065984605</v>
       </c>
       <c r="M7" t="n">
-        <v>12.4963784284628</v>
+        <v>12.56111505145493</v>
       </c>
       <c r="N7" t="n">
-        <v>255.6577248375666</v>
+        <v>256.4750906690199</v>
       </c>
       <c r="O7" t="n">
-        <v>15.98930032357785</v>
+        <v>16.0148397016336</v>
       </c>
       <c r="P7" t="n">
-        <v>362.8312768691494</v>
+        <v>362.4602307368166</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32294,28 +32776,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.3237832316482301</v>
+        <v>-0.261258101696281</v>
       </c>
       <c r="J8" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K8" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007700211284250358</v>
+        <v>0.005108601284440573</v>
       </c>
       <c r="M8" t="n">
-        <v>22.66277849008287</v>
+        <v>22.6577379124806</v>
       </c>
       <c r="N8" t="n">
-        <v>729.3049553712547</v>
+        <v>731.3941555403877</v>
       </c>
       <c r="O8" t="n">
-        <v>27.00564673121632</v>
+        <v>27.04429987151429</v>
       </c>
       <c r="P8" t="n">
-        <v>333.1197725623861</v>
+        <v>332.5170822491426</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32371,28 +32853,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1439922246514722</v>
+        <v>-0.0975741932145345</v>
       </c>
       <c r="J9" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003535698629602124</v>
+        <v>0.001653361748983895</v>
       </c>
       <c r="M9" t="n">
-        <v>13.78661957598153</v>
+        <v>13.82201419404909</v>
       </c>
       <c r="N9" t="n">
-        <v>327.3959208346727</v>
+        <v>328.5013069410711</v>
       </c>
       <c r="O9" t="n">
-        <v>18.09408524448453</v>
+        <v>18.12460501476021</v>
       </c>
       <c r="P9" t="n">
-        <v>344.8641072906861</v>
+        <v>344.4301993034674</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32448,28 +32930,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03664850921174093</v>
+        <v>-0.008376485324307653</v>
       </c>
       <c r="J10" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K10" t="n">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001870520676510168</v>
+        <v>1.007838475275413e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>15.19075174587922</v>
+        <v>15.09706679811598</v>
       </c>
       <c r="N10" t="n">
-        <v>393.5400383899199</v>
+        <v>389.0277886572626</v>
       </c>
       <c r="O10" t="n">
-        <v>19.8378435922335</v>
+        <v>19.72378738116142</v>
       </c>
       <c r="P10" t="n">
-        <v>351.114447027543</v>
+        <v>350.8439652657255</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32525,28 +33007,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3209586867077379</v>
+        <v>-0.2537461184857515</v>
       </c>
       <c r="J11" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K11" t="n">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00968833130128155</v>
+        <v>0.006242225512679944</v>
       </c>
       <c r="M11" t="n">
-        <v>18.5370293008837</v>
+        <v>18.486460315171</v>
       </c>
       <c r="N11" t="n">
-        <v>592.5034804138365</v>
+        <v>588.5838575480108</v>
       </c>
       <c r="O11" t="n">
-        <v>24.3413943810505</v>
+        <v>24.26074725864829</v>
       </c>
       <c r="P11" t="n">
-        <v>369.0894143586789</v>
+        <v>368.4626998083247</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32596,28 +33078,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.327677789873306</v>
+        <v>-1.102214998752812</v>
       </c>
       <c r="J12" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K12" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04390921759618494</v>
+        <v>0.03095460187371146</v>
       </c>
       <c r="M12" t="n">
-        <v>40.49523626657712</v>
+        <v>40.73481567436043</v>
       </c>
       <c r="N12" t="n">
-        <v>2218.389635008829</v>
+        <v>2242.400465345162</v>
       </c>
       <c r="O12" t="n">
-        <v>47.09978381063792</v>
+        <v>47.35399101813027</v>
       </c>
       <c r="P12" t="n">
-        <v>352.3248315580842</v>
+        <v>350.2235207375544</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -32673,28 +33155,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6855119110413357</v>
+        <v>-0.419188417402715</v>
       </c>
       <c r="J13" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K13" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009130504665706973</v>
+        <v>0.00345237125816511</v>
       </c>
       <c r="M13" t="n">
-        <v>46.99739451271225</v>
+        <v>47.67104715791573</v>
       </c>
       <c r="N13" t="n">
-        <v>2858.260431484394</v>
+        <v>2899.506142956709</v>
       </c>
       <c r="O13" t="n">
-        <v>53.46270131114209</v>
+        <v>53.84706252857912</v>
       </c>
       <c r="P13" t="n">
-        <v>323.1682246496042</v>
+        <v>320.6292250103984</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -32744,28 +33226,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-2.162957777002652</v>
+        <v>-1.843678231246143</v>
       </c>
       <c r="J14" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K14" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06087513322136873</v>
+        <v>0.04512201458012211</v>
       </c>
       <c r="M14" t="n">
-        <v>49.2646402347377</v>
+        <v>50.01492259328198</v>
       </c>
       <c r="N14" t="n">
-        <v>4003.091903805283</v>
+        <v>4065.625675186703</v>
       </c>
       <c r="O14" t="n">
-        <v>63.26999212743181</v>
+        <v>63.76225901884831</v>
       </c>
       <c r="P14" t="n">
-        <v>351.3797433628648</v>
+        <v>348.2899038540086</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -32802,7 +33284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O587"/>
+  <dimension ref="A1:O595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68645,6 +69127,610 @@
         </is>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:12:12+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-37.208215130762625,174.6135536331488</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-37.20754876139244,174.61322446897336</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-37.206894252705126,174.6128617853421</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-37.206244182611904,174.6124865477576</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-37.20555245312355,174.61222897005726</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>-37.20483417522044,174.61204636672733</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>-37.20418268436001,174.6116789902082</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>-37.20350498714428,174.61138931511837</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>-37.20285925282869,174.61100097317717</t>
+        </is>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>-37.202336532629985,174.61024641552405</t>
+        </is>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>-37.201661527628914,174.60994420087002</t>
+        </is>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>-37.200907868361796,174.60987560924772</t>
+        </is>
+      </c>
+      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-37.20827891513938,174.6133734584366</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-37.20762676281412,174.61300413510153</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-37.20697076698629,174.61264565256232</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-37.206287816569855,174.61236329357095</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-37.20564068105651,174.61197975057283</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-37.204950361918804,174.61171817342768</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-37.20424109119999,174.61151039843622</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-37.20361100059768,174.61107545934442</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-37.202907958472835,174.61085629431062</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>-37.202326441734414,174.61027639055</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>-37.20169230699294,174.60985277079007</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>-37.20105156723014,174.60944875406818</t>
+        </is>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>-37.200424601673454,174.60900380375907</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-37.208155197493355,174.61372292848472</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-37.20750422325153,174.61335027700298</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-37.206873426403405,174.61292061391714</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-37.2062463872098,174.61248032037395</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-37.20555650162611,174.6122175342031</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-37.20494920521449,174.6117214407951</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-37.20410433104208,174.61190515615257</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-37.203514651323225,174.61136070418522</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>-37.20291628331035,174.61083156552385</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>-37.20231354650681,174.61031469580604</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>-37.20161863565732,174.61007161097322</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>-37.200964586339474,174.609707130139</t>
+        </is>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>-37.2002977013467,174.60938076015194</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-37.208167110948175,174.61368927626015</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-37.20748059212598,174.6134170282384</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-37.206875860174264,174.61291373918968</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-37.206240583929386,174.61249671304486</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-37.20558422107407,174.61213923462742</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-37.204949397998554,174.6117208962339</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-37.204085585199216,174.61195926555897</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-37.20351767795105,174.6113517438068</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>-37.20290545153218,174.61086374113074</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>-37.20230833403487,174.61033017943282</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>-37.201595668996426,174.6101398329479</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>-37.20094426893446,174.60976748251153</t>
+        </is>
+      </c>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>-37.200280809787635,174.60943093603063</t>
+        </is>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-37.208234571267205,174.6134987187594</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-37.20757970439104,174.6131370631846</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-37.206916110178184,174.61280004386919</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-37.206275512997856,174.6123980479008</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-37.2056283897216,174.6120144703135</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-37.20496725396002,174.61167045807736</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr"/>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>-37.20362537405228,174.61103290607798</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>-37.20292437342953,174.61080753394407</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>-37.20230737854426,174.6103330177129</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>-37.20168720332122,174.6098679312629</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>-37.201052681275,174.60944544479182</t>
+        </is>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>-37.20038652987477,174.60911689623094</t>
+        </is>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-37.20819910120967,174.61359891240886</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-37.20752134283683,174.6133019189326</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-37.206905871123126,174.61282896645693</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-37.20627028113994,174.61241282650067</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-37.20559089561782,174.612120380905</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-37.20494628740143,174.61172968280255</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>-37.204125091818234,174.61184523057818</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>-37.20353591950464,174.61129773934826</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>-37.20293117511865,174.6107873296118</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>-37.202334664377744,174.6102519651734</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>-37.20162866826577,174.61004180927534</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>-37.20097838507458,174.60966614125175</t>
+        </is>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>-37.20031929527643,174.60931661589626</t>
+        </is>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-37.208250223888044,174.61345450408822</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-37.20758723712713,174.61311578515907</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-37.20692733068916,174.61276834889983</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-37.20630569239405,174.6123127990348</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-37.20564356240657,174.61197161152216</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>-37.20498419287579,174.61162261024424</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>-37.20429571633933,174.61135272171668</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>-37.20362532730934,174.61103304446263</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>-37.202928418487346,174.6107955181522</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>-37.202346336094955,174.6102172942823</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>-37.2016970610964,174.6098386487039</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>-37.20104607147673,174.6094650792282</t>
+        </is>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>-37.20039918097041,174.60907931613468</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-37.20825583002692,174.61343866815673</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-37.20762619843641,174.61300572932853</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-37.20630529524378,174.6123139208815</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-37.2056676708965,174.61190351133905</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-37.20501773718789,174.6115278564575</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>-37.20429181933692,174.611363970531</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>-37.20361385191832,174.61106701788478</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>-37.202977843004874,174.6106487028701</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>-37.20238063263084,174.61011541602625</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>-37.201692062296395,174.6098534976621</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>-37.20099345742973,174.6096213690352</t>
+        </is>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>-37.20033782821522,174.60926156413106</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -32171,7 +32171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32262,35 +32262,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32349,27 +32354,28 @@
       <c r="P2" t="n">
         <v>355.6054964067414</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.61732734352586 -37.20687909746536, 174.60786226779763 -37.210229771374514)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.6173273435259</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.20687909746536</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6078622677976</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.21022977137451</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6125948056617</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.20855443441994</v>
       </c>
     </row>
@@ -32420,27 +32426,28 @@
       <c r="P3" t="n">
         <v>321.7411669631346</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.61697247016664 -37.20622182742257, 174.60750743612758 -37.20957249192035)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.6169724701666</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.20622182742257</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.6075074361276</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.20957249192035</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6122399531471</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.20789715967146</v>
       </c>
     </row>
@@ -32497,27 +32504,28 @@
       <c r="P4" t="n">
         <v>354.1461295842049</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.61661759680752 -37.205564551654966, 174.60715260445716 -37.20891520674173)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6166175968075</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.20556455165497</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6071526044572</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.20891520674173</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.6118851006323</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.20723987919835</v>
       </c>
     </row>
@@ -32574,27 +32582,28 @@
       <c r="P5" t="n">
         <v>357.4431936557808</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.61626272344859 -37.20490727016248, 174.60679777278636 -37.20825791583874)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.6162627234486</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.20490727016248</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6067977727864</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.20825791583874</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6115302481175</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.20658259300061</v>
       </c>
     </row>
@@ -32651,27 +32660,28 @@
       <c r="P6" t="n">
         <v>356.4200267530775</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.6159078500899 -37.204249982945306, 174.60644294111518 -37.20760061921131)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6159078500899</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.20424998294531</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6064429411152</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.20760061921131</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6111753956025</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.20592530107831</v>
       </c>
     </row>
@@ -32728,27 +32738,28 @@
       <c r="P7" t="n">
         <v>362.4602307368166</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.61555297673135 -37.203592690003426, 174.60608810944362 -37.20694331685944)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.6155529767314</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.20359269000343</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.6060881094436</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.20694331685944</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6108205430875</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.20526800343143</v>
       </c>
     </row>
@@ -32799,27 +32810,28 @@
       <c r="P8" t="n">
         <v>332.5170822491426</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.61521100193153 -37.20295898098748, 174.60571308177978 -37.2062493114096)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.6152110019315</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.20295898098748</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6057130817798</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.2062493114096</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6104620418557</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.20460414619854</v>
       </c>
     </row>
@@ -32876,27 +32888,28 @@
       <c r="P9" t="n">
         <v>344.4301993034674</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.61488387481612 -37.20232452757971, 174.60534864746558 -37.205545193081896)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6148838748161</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.20232452757971</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6053486474656</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.2055451930819</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6101162611408</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.2039348603308</v>
       </c>
     </row>
@@ -32953,27 +32966,28 @@
       <c r="P10" t="n">
         <v>350.8439652657255</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.61454607221464 -37.20166573328276, 174.6050060449873 -37.20487722612576)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6145460722146</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.20166573328276</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6050060449873</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.20487722612576</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.609776058601</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.20327147970426</v>
       </c>
     </row>
@@ -33030,27 +33044,28 @@
       <c r="P11" t="n">
         <v>368.4626998083247</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.61420638219857 -37.20100334768646, 174.60466639840362 -37.20421483137198)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6142063821986</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.20100334768646</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.6046663984036</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.20421483137198</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6094363903011</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.20260908952922</v>
       </c>
     </row>
@@ -33101,27 +33116,28 @@
       <c r="P12" t="n">
         <v>350.2235207375544</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.6138666921827 -37.20034095627695, 174.6043267518195 -37.20355243080532)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6138666921827</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.20034095627695</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.6043267518195</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.20355243080532</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6090967220011</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.20194669354113</v>
       </c>
     </row>
@@ -33178,27 +33194,28 @@
       <c r="P13" t="n">
         <v>320.6292250103984</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.6135270021671 -37.199678559054355, 174.60398710523495 -37.20289002442589)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6135270021671</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.19967855905436</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.6039871052349</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.20289002442589</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.608757053701</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.20128429174012</v>
       </c>
     </row>
@@ -33249,27 +33266,28 @@
       <c r="P14" t="n">
         <v>348.2899038540086</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.6131873121516 -37.19901615601854, 174.60364745865002 -37.20222761223381)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6131873121516</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.19901615601854</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.60364745865</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.20222761223381</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6084173854008</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.20062188412618</v>
       </c>
     </row>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O595"/>
+  <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26119,6 +26119,341 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>354.3111111111111</v>
+      </c>
+      <c r="C596" t="n">
+        <v>359.351052631579</v>
+      </c>
+      <c r="D596" t="n">
+        <v>364.2463636363637</v>
+      </c>
+      <c r="E596" t="n">
+        <v>375.4633333333333</v>
+      </c>
+      <c r="F596" t="n">
+        <v>371.58</v>
+      </c>
+      <c r="G596" t="n">
+        <v>376.19</v>
+      </c>
+      <c r="H596" t="n">
+        <v>361.5393548387097</v>
+      </c>
+      <c r="I596" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="J596" t="n">
+        <v>366.34</v>
+      </c>
+      <c r="K596" t="n">
+        <v>379.9433333333333</v>
+      </c>
+      <c r="L596" t="n">
+        <v>371.11</v>
+      </c>
+      <c r="M596" t="n">
+        <v>371.7721739130435</v>
+      </c>
+      <c r="N596" t="n">
+        <v>384.6821739130434</v>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>347.9511111111111</v>
+      </c>
+      <c r="C597" t="n">
+        <v>364.028947368421</v>
+      </c>
+      <c r="D597" t="n">
+        <v>365.6172727272727</v>
+      </c>
+      <c r="E597" t="n">
+        <v>368.9033333333333</v>
+      </c>
+      <c r="F597" t="n">
+        <v>368.72</v>
+      </c>
+      <c r="G597" t="n">
+        <v>367.5857142857143</v>
+      </c>
+      <c r="H597" t="n">
+        <v>352.2854838709678</v>
+      </c>
+      <c r="I597" t="n">
+        <v>358.07</v>
+      </c>
+      <c r="J597" t="n">
+        <v>360.7928571428571</v>
+      </c>
+      <c r="K597" t="n">
+        <v>379.1333333333333</v>
+      </c>
+      <c r="L597" t="n">
+        <v>372.475</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+      <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>354.8737037037037</v>
+      </c>
+      <c r="C598" t="n">
+        <v>346.6431578947368</v>
+      </c>
+      <c r="D598" t="n">
+        <v>378.490909090909</v>
+      </c>
+      <c r="E598" t="n">
+        <v>375.9811111111111</v>
+      </c>
+      <c r="F598" t="n">
+        <v>375.61</v>
+      </c>
+      <c r="G598" t="n">
+        <v>378.3157142857143</v>
+      </c>
+      <c r="H598" t="n">
+        <v>360.6816129032258</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>347.6974074074074</v>
+      </c>
+      <c r="C599" t="n">
+        <v>380.7436842105263</v>
+      </c>
+      <c r="D599" t="n">
+        <v>370.2572727272727</v>
+      </c>
+      <c r="E599" t="n">
+        <v>361.0922222222222</v>
+      </c>
+      <c r="F599" t="n">
+        <v>366.53</v>
+      </c>
+      <c r="G599" t="n">
+        <v>374.0257142857143</v>
+      </c>
+      <c r="H599" t="n">
+        <v>372.1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>368.1833333333333</v>
+      </c>
+      <c r="J599" t="n">
+        <v>372.2028571428572</v>
+      </c>
+      <c r="K599" t="n">
+        <v>405.3922222222222</v>
+      </c>
+      <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr"/>
+      <c r="N599" t="n">
+        <v>413.1986956521739</v>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>356.7762962962963</v>
+      </c>
+      <c r="C600" t="n">
+        <v>316.9194736842105</v>
+      </c>
+      <c r="D600" t="n">
+        <v>362.6536363636364</v>
+      </c>
+      <c r="E600" t="n">
+        <v>376.9788888888889</v>
+      </c>
+      <c r="F600" t="n">
+        <v>368.88</v>
+      </c>
+      <c r="G600" t="n">
+        <v>376.73</v>
+      </c>
+      <c r="H600" t="n">
+        <v>337.5116129032258</v>
+      </c>
+      <c r="I600" t="n">
+        <v>359.3633333333333</v>
+      </c>
+      <c r="J600" t="n">
+        <v>373.78</v>
+      </c>
+      <c r="K600" t="n">
+        <v>375.4188888888889</v>
+      </c>
+      <c r="L600" t="n">
+        <v>346.76</v>
+      </c>
+      <c r="M600" t="n">
+        <v>285.6991304347826</v>
+      </c>
+      <c r="N600" t="n">
+        <v>292.4591304347827</v>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>346.8374074074074</v>
+      </c>
+      <c r="C601" t="n">
+        <v>317.6684210526316</v>
+      </c>
+      <c r="D601" t="n">
+        <v>358.930909090909</v>
+      </c>
+      <c r="E601" t="n">
+        <v>373.2022222222223</v>
+      </c>
+      <c r="F601" t="n">
+        <v>368.27</v>
+      </c>
+      <c r="G601" t="n">
+        <v>374.9557142857143</v>
+      </c>
+      <c r="H601" t="n">
+        <v>334.8170967741935</v>
+      </c>
+      <c r="I601" t="n">
+        <v>356.9233333333333</v>
+      </c>
+      <c r="J601" t="n">
+        <v>371.0528571428572</v>
+      </c>
+      <c r="K601" t="n">
+        <v>373.0122222222223</v>
+      </c>
+      <c r="L601" t="n">
+        <v>317.645</v>
+      </c>
+      <c r="M601" t="n">
+        <v>285.2034782608696</v>
+      </c>
+      <c r="N601" t="n">
+        <v>301.4634782608696</v>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>358.13</v>
+      </c>
+      <c r="C602" t="n">
+        <v>324.6726315789474</v>
+      </c>
+      <c r="D602" t="n">
+        <v>353.5045454545455</v>
+      </c>
+      <c r="E602" t="n">
+        <v>374.66</v>
+      </c>
+      <c r="F602" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="G602" t="n">
+        <v>371.8457142857143</v>
+      </c>
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="n">
+        <v>341.26</v>
+      </c>
+      <c r="J602" t="n">
+        <v>363.0628571428572</v>
+      </c>
+      <c r="K602" t="n">
+        <v>376.81</v>
+      </c>
+      <c r="L602" t="n">
+        <v>311.3</v>
+      </c>
+      <c r="M602" t="n">
+        <v>279.2369565217391</v>
+      </c>
+      <c r="N602" t="n">
+        <v>299.6569565217391</v>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26130,7 +26465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32158,6 +32493,76 @@
       </c>
       <c r="B602" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
@@ -32331,28 +32736,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3082065663597623</v>
+        <v>-0.2936871174788357</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K2" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0141055435605455</v>
+        <v>0.01323802758010706</v>
       </c>
       <c r="M2" t="n">
-        <v>14.46570963345452</v>
+        <v>14.29106304002235</v>
       </c>
       <c r="N2" t="n">
-        <v>374.1036554325148</v>
+        <v>368.4380391335615</v>
       </c>
       <c r="O2" t="n">
-        <v>19.34175936755793</v>
+        <v>19.19473988189372</v>
       </c>
       <c r="P2" t="n">
-        <v>355.6054964067414</v>
+        <v>355.465661476349</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32403,28 +32808,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.504084995254317</v>
+        <v>0.5348144548542808</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K3" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01433368883999531</v>
+        <v>0.01651672511321545</v>
       </c>
       <c r="M3" t="n">
-        <v>26.79001721392131</v>
+        <v>26.72859802550696</v>
       </c>
       <c r="N3" t="n">
-        <v>1013.023657050828</v>
+        <v>1006.431841866651</v>
       </c>
       <c r="O3" t="n">
-        <v>31.82803256644727</v>
+        <v>31.72430995099264</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7411669631346</v>
+        <v>321.4582716131205</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32481,28 +32886,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1277129138432895</v>
+        <v>0.1490201598112112</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K4" t="n">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002692231530500577</v>
+        <v>0.003763686255936149</v>
       </c>
       <c r="M4" t="n">
-        <v>14.62952617260003</v>
+        <v>14.53416111983187</v>
       </c>
       <c r="N4" t="n">
-        <v>341.8190234596336</v>
+        <v>338.2333470420668</v>
       </c>
       <c r="O4" t="n">
-        <v>18.48834831615939</v>
+        <v>18.3911214188278</v>
       </c>
       <c r="P4" t="n">
-        <v>354.1461295842049</v>
+        <v>353.9452136443081</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32559,28 +32964,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1978578799691361</v>
+        <v>0.2264820129786022</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K5" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008082621687973135</v>
+        <v>0.01083677384336856</v>
       </c>
       <c r="M5" t="n">
-        <v>12.95871374992557</v>
+        <v>12.92114391531407</v>
       </c>
       <c r="N5" t="n">
-        <v>271.9691153769361</v>
+        <v>269.5974427064635</v>
       </c>
       <c r="O5" t="n">
-        <v>16.49148614822012</v>
+        <v>16.41942272756456</v>
       </c>
       <c r="P5" t="n">
-        <v>357.4431936557808</v>
+        <v>357.1726559333719</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32637,28 +33042,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03616674222599325</v>
+        <v>0.06983175398617487</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K6" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002277755468865772</v>
+        <v>0.0008715137490149516</v>
       </c>
       <c r="M6" t="n">
-        <v>13.83279140073703</v>
+        <v>13.78818809110889</v>
       </c>
       <c r="N6" t="n">
-        <v>321.1588192652187</v>
+        <v>318.3347937304995</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92090453256248</v>
+        <v>17.84193918077571</v>
       </c>
       <c r="P6" t="n">
-        <v>356.4200267530775</v>
+        <v>356.1010480569935</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32715,28 +33120,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03447770968177521</v>
+        <v>0.003531003809717301</v>
       </c>
       <c r="J7" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K7" t="n">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002619286065984605</v>
+        <v>2.813478939378555e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>12.56111505145493</v>
+        <v>12.55364541576015</v>
       </c>
       <c r="N7" t="n">
-        <v>256.4750906690199</v>
+        <v>254.9988258980039</v>
       </c>
       <c r="O7" t="n">
-        <v>16.0148397016336</v>
+        <v>15.96868266006949</v>
       </c>
       <c r="P7" t="n">
-        <v>362.4602307368166</v>
+        <v>362.1017898648114</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32787,28 +33192,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.261258101696281</v>
+        <v>-0.1851063436503285</v>
       </c>
       <c r="J8" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K8" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005108601284440573</v>
+        <v>0.002603155558913661</v>
       </c>
       <c r="M8" t="n">
-        <v>22.6577379124806</v>
+        <v>22.70305249885094</v>
       </c>
       <c r="N8" t="n">
-        <v>731.3941555403877</v>
+        <v>733.74761488847</v>
       </c>
       <c r="O8" t="n">
-        <v>27.04429987151429</v>
+        <v>27.08777611559262</v>
       </c>
       <c r="P8" t="n">
-        <v>332.5170822491426</v>
+        <v>331.7773496033624</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32865,28 +33270,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0975741932145345</v>
+        <v>-0.05869237501699083</v>
       </c>
       <c r="J9" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K9" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001653361748983895</v>
+        <v>0.0006080927342207998</v>
       </c>
       <c r="M9" t="n">
-        <v>13.82201419404909</v>
+        <v>13.85445353058757</v>
       </c>
       <c r="N9" t="n">
-        <v>328.5013069410711</v>
+        <v>328.1421052753492</v>
       </c>
       <c r="O9" t="n">
-        <v>18.12460501476021</v>
+        <v>18.11469307703968</v>
       </c>
       <c r="P9" t="n">
-        <v>344.4301993034674</v>
+        <v>344.0637592545428</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32943,28 +33348,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.008376485324307653</v>
+        <v>0.0346982049910189</v>
       </c>
       <c r="J10" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K10" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007838475275413e-05</v>
+        <v>0.0001758091394801209</v>
       </c>
       <c r="M10" t="n">
-        <v>15.09706679811598</v>
+        <v>15.10600195333831</v>
       </c>
       <c r="N10" t="n">
-        <v>389.0277886572626</v>
+        <v>387.9587591558806</v>
       </c>
       <c r="O10" t="n">
-        <v>19.72378738116142</v>
+        <v>19.69666873245018</v>
       </c>
       <c r="P10" t="n">
-        <v>350.8439652657255</v>
+        <v>350.4285832594272</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33021,28 +33426,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2537461184857515</v>
+        <v>-0.2030204543415927</v>
       </c>
       <c r="J11" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K11" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006242225512679944</v>
+        <v>0.004073177746856227</v>
       </c>
       <c r="M11" t="n">
-        <v>18.486460315171</v>
+        <v>18.45793520820495</v>
       </c>
       <c r="N11" t="n">
-        <v>588.5838575480108</v>
+        <v>587.1855727988969</v>
       </c>
       <c r="O11" t="n">
-        <v>24.26074725864829</v>
+        <v>24.23191228109942</v>
       </c>
       <c r="P11" t="n">
-        <v>368.4626998083247</v>
+        <v>367.9849197889426</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33093,28 +33498,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.102214998752812</v>
+        <v>-1.050824493879949</v>
       </c>
       <c r="J12" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K12" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03095460187371146</v>
+        <v>0.02873109203606738</v>
       </c>
       <c r="M12" t="n">
-        <v>40.73481567436043</v>
+        <v>40.53736783039241</v>
       </c>
       <c r="N12" t="n">
-        <v>2242.400465345162</v>
+        <v>2227.321455621768</v>
       </c>
       <c r="O12" t="n">
-        <v>47.35399101813027</v>
+        <v>47.19450662547251</v>
       </c>
       <c r="P12" t="n">
-        <v>350.2235207375544</v>
+        <v>349.740478761772</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33171,28 +33576,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.419188417402715</v>
+        <v>-0.427804898649936</v>
       </c>
       <c r="J13" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K13" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00345237125816511</v>
+        <v>0.003648227824725736</v>
       </c>
       <c r="M13" t="n">
-        <v>47.67104715791573</v>
+        <v>47.53640954563416</v>
       </c>
       <c r="N13" t="n">
-        <v>2899.506142956709</v>
+        <v>2884.849827824725</v>
       </c>
       <c r="O13" t="n">
-        <v>53.84706252857912</v>
+        <v>53.71079805611461</v>
       </c>
       <c r="P13" t="n">
-        <v>320.6292250103984</v>
+        <v>320.7140601564337</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33243,28 +33648,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-1.843678231246143</v>
+        <v>-1.746428501171779</v>
       </c>
       <c r="J14" t="n">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="K14" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04512201458012211</v>
+        <v>0.04120910028921387</v>
       </c>
       <c r="M14" t="n">
-        <v>50.01492259328198</v>
+        <v>49.90548235658768</v>
       </c>
       <c r="N14" t="n">
-        <v>4065.625675186703</v>
+        <v>4062.694862050709</v>
       </c>
       <c r="O14" t="n">
-        <v>63.76225901884831</v>
+        <v>63.73927252527055</v>
       </c>
       <c r="P14" t="n">
-        <v>348.2899038540086</v>
+        <v>347.3405221012064</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33302,7 +33707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O595"/>
+  <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69749,6 +70154,501 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-37.208171462146424,174.61367698531566</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-37.20753256711605,174.61327021342166</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-37.206893138609786,174.61286493235792</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-37.20627676118676,174.61239452209975</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-37.20560530240988,174.6120796857002</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>-37.204964815504894,174.61167734604413</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>-37.204253928357254,174.61147334376113</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>-37.203592537113785,174.61113012123954</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>-37.202946416483215,174.61074205527953</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>-37.202331576517466,174.61026113767022</t>
+        </is>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>-37.201638298863855,174.6100132017145</t>
+        </is>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>-37.20097820877186,174.6096666649561</t>
+        </is>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>-37.20036092672078,174.6091929502882</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>-37.20814826474722,174.61374251156357</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>-37.20754962907957,174.61322201799</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>-37.20689813877515,174.61285080825036</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-37.206252834846275,174.61246210756408</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-37.20559487116433,174.61210915109058</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>-37.2049334333861,174.6117659917812</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>-37.204220784644995,174.61156901356324</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>-37.20357988143304,174.61116758883912</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>-37.202927025189794,174.6107996569251</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>-37.202328745007236,174.61026954867606</t>
+        </is>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>-37.2016430704644,174.6099990277297</t>
+        </is>
+      </c>
+      <c r="M597" t="inlineStr"/>
+      <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-37.20817351413922,174.61367118899582</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-37.20748621675953,174.6134011402553</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-37.20694509316553,174.6127181745448</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-37.20627864968019,174.61238918760833</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>-37.205620000971,174.61203816627233</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>-37.20497256854036,174.61165544584048</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>-37.204250856267464,174.61148221140527</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-37.2081473393902,174.61374512543875</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-37.207610593576355,174.6130498091536</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-37.20691506239956,174.61280300356444</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-37.20622434526911,174.61254258274644</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>-37.20558688359735,174.61213171374402</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>-37.20495692178529,174.6116996436258</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>-37.20429175232649,174.61136416395857</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>-37.20361533600711,174.61106262417394</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>-37.2029669113976,174.6106811752173</t>
+        </is>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>-37.202420537688326,174.6099968771522</t>
+        </is>
+      </c>
+      <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr"/>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>-37.20046060944278,174.60889684210082</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-37.20818045362823,174.61365158682415</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-37.20737780302129,174.61370737663609</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-37.20688732939704,174.61288134179614</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-37.206282288879315,174.61237890783653</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>-37.205595454730705,174.61210750267733</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>-37.204966785026386,174.6116717826864</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>-37.204167870315615,174.61172175090593</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>-37.2035844155102,174.61115416554546</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>-37.20297242464421,174.6106647981188</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>-37.20231576044735,174.61030811930218</t>
+        </is>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>-37.20155317882465,174.61026604868076</t>
+        </is>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>-37.20067732358793,174.61056042598145</t>
+        </is>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>-37.20003854570337,174.6101505650341</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-37.20814420263205,174.6137539859029</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-37.207380534730625,174.61369966041218</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-37.206873751348304,174.61291969603803</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-37.20626851422237,174.6124178175688</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>-37.205593229883775,174.61211378725264</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>-37.20496031374055,174.6116900622893</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>-37.20415821957338,174.61174960771373</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>-37.20357586152832,174.61117948990224</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>-37.20296289132056,174.61069311685014</t>
+        </is>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>-37.2023073474714,174.61033311001466</t>
+        </is>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>-37.201451401132374,174.6105683739677</t>
+        </is>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>-37.200675590919566,174.6105655726889</t>
+        </is>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>-37.20007002223518,174.61005706712007</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-37.208185391105836,174.6136376397833</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-37.20740608185241,174.61362749769452</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-37.206853959538336,174.6129756023546</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-37.206273831184696,174.61240279857412</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-37.20556762588433,174.61218611135413</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-37.204948970747395,174.6117221030993</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr"/>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>-37.20352094998037,174.61134205691036</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>-37.2029349604919,174.61077608520208</t>
+        </is>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>-37.20232062334707,174.6102936740678</t>
+        </is>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>-37.20142922073146,174.6106342592748</t>
+        </is>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>-37.2006547335271,174.61062752728955</t>
+        </is>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>-37.20006370717627,174.61007582539943</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O602"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26454,6 +26454,223 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>356.9081481481481</v>
+      </c>
+      <c r="C603" t="n">
+        <v>329.8931578947368</v>
+      </c>
+      <c r="D603" t="n">
+        <v>362.9781818181818</v>
+      </c>
+      <c r="E603" t="n">
+        <v>380.3144444444445</v>
+      </c>
+      <c r="F603" t="n">
+        <v>360.61</v>
+      </c>
+      <c r="G603" t="n">
+        <v>371.7871428571429</v>
+      </c>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="n">
+        <v>328.9666666666667</v>
+      </c>
+      <c r="J603" t="n">
+        <v>340.3885714285714</v>
+      </c>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>299.49</v>
+      </c>
+      <c r="M603" t="n">
+        <v>281.3508695652173</v>
+      </c>
+      <c r="N603" t="n">
+        <v>288.2308695652174</v>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>367.4066666666667</v>
+      </c>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="n">
+        <v>375.7081818181818</v>
+      </c>
+      <c r="E604" t="n">
+        <v>376.11</v>
+      </c>
+      <c r="F604" t="n">
+        <v>375</v>
+      </c>
+      <c r="G604" t="n">
+        <v>368.3328571428572</v>
+      </c>
+      <c r="H604" t="n">
+        <v>335.7535483870968</v>
+      </c>
+      <c r="I604" t="n">
+        <v>376.4</v>
+      </c>
+      <c r="J604" t="n">
+        <v>376.8514285714285</v>
+      </c>
+      <c r="K604" t="n">
+        <v>391.79</v>
+      </c>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="n">
+        <v>279.2569565217391</v>
+      </c>
+      <c r="N604" t="n">
+        <v>280.6969565217391</v>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:46+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>329.8203703703704</v>
+      </c>
+      <c r="C605" t="n">
+        <v>318.8147368421053</v>
+      </c>
+      <c r="D605" t="n">
+        <v>358.8654545454545</v>
+      </c>
+      <c r="E605" t="n">
+        <v>361.0211111111111</v>
+      </c>
+      <c r="F605" t="n">
+        <v>352.49</v>
+      </c>
+      <c r="G605" t="n">
+        <v>362.5857142857143</v>
+      </c>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="n">
+        <v>347.2666666666667</v>
+      </c>
+      <c r="J605" t="n">
+        <v>376.9628571428572</v>
+      </c>
+      <c r="K605" t="n">
+        <v>396.8411111111111</v>
+      </c>
+      <c r="L605" t="n">
+        <v>287.835</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>324.0333333333333</v>
+      </c>
+      <c r="C606" t="n">
+        <v>290.8710526315789</v>
+      </c>
+      <c r="D606" t="n">
+        <v>341.96</v>
+      </c>
+      <c r="E606" t="n">
+        <v>367.67</v>
+      </c>
+      <c r="F606" t="n">
+        <v>358.98</v>
+      </c>
+      <c r="G606" t="n">
+        <v>367.1357142857143</v>
+      </c>
+      <c r="H606" t="n">
+        <v>309.8541935483871</v>
+      </c>
+      <c r="I606" t="n">
+        <v>337.87</v>
+      </c>
+      <c r="J606" t="n">
+        <v>355.2328571428571</v>
+      </c>
+      <c r="K606" t="n">
+        <v>363.45</v>
+      </c>
+      <c r="L606" t="n">
+        <v>282.475</v>
+      </c>
+      <c r="M606" t="n">
+        <v>278.4186956521739</v>
+      </c>
+      <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
+      <c r="M607" t="n">
+        <v>256.9208695652174</v>
+      </c>
+      <c r="N607" t="n">
+        <v>259.2708695652174</v>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26465,7 +26682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B609"/>
+  <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32563,6 +32780,56 @@
       </c>
       <c r="B609" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -32736,28 +33003,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2936871174788357</v>
+        <v>-0.2996273931622526</v>
       </c>
       <c r="J2" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K2" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01323802758010706</v>
+        <v>0.01390639148339523</v>
       </c>
       <c r="M2" t="n">
-        <v>14.29106304002235</v>
+        <v>14.32790649179673</v>
       </c>
       <c r="N2" t="n">
-        <v>368.4380391335615</v>
+        <v>368.1574745961303</v>
       </c>
       <c r="O2" t="n">
-        <v>19.19473988189372</v>
+        <v>19.18743011964161</v>
       </c>
       <c r="P2" t="n">
-        <v>355.465661476349</v>
+        <v>355.5233635251845</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32808,28 +33075,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.5348144548542808</v>
+        <v>0.5049537433729522</v>
       </c>
       <c r="J3" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K3" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01651672511321545</v>
+        <v>0.01489180537116563</v>
       </c>
       <c r="M3" t="n">
-        <v>26.72859802550696</v>
+        <v>26.67725865663069</v>
       </c>
       <c r="N3" t="n">
-        <v>1006.431841866651</v>
+        <v>1004.503467484943</v>
       </c>
       <c r="O3" t="n">
-        <v>31.72430995099264</v>
+        <v>31.69390268624145</v>
       </c>
       <c r="P3" t="n">
-        <v>321.4582716131205</v>
+        <v>321.7357027187335</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32886,28 +33153,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1490201598112112</v>
+        <v>0.1524096931312886</v>
       </c>
       <c r="J4" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003763686255936149</v>
+        <v>0.003991673532337647</v>
       </c>
       <c r="M4" t="n">
-        <v>14.53416111983187</v>
+        <v>14.49471592631917</v>
       </c>
       <c r="N4" t="n">
-        <v>338.2333470420668</v>
+        <v>336.6028801727203</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3911214188278</v>
+        <v>18.34674031463683</v>
       </c>
       <c r="P4" t="n">
-        <v>353.9452136443081</v>
+        <v>353.9131498619312</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32964,28 +33231,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2264820129786022</v>
+        <v>0.2400220419012842</v>
       </c>
       <c r="J5" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K5" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01083677384336856</v>
+        <v>0.01232474170763287</v>
       </c>
       <c r="M5" t="n">
-        <v>12.92114391531407</v>
+        <v>12.89128262787301</v>
       </c>
       <c r="N5" t="n">
-        <v>269.5974427064635</v>
+        <v>268.3088445678753</v>
       </c>
       <c r="O5" t="n">
-        <v>16.41942272756456</v>
+        <v>16.38013567000821</v>
       </c>
       <c r="P5" t="n">
-        <v>357.1726559333719</v>
+        <v>357.0441506681097</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33042,28 +33309,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06983175398617487</v>
+        <v>0.07627902945219038</v>
       </c>
       <c r="J6" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K6" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008715137490149516</v>
+        <v>0.001056656974554371</v>
       </c>
       <c r="M6" t="n">
-        <v>13.78818809110889</v>
+        <v>13.72373875056312</v>
       </c>
       <c r="N6" t="n">
-        <v>318.3347937304995</v>
+        <v>316.2587443106429</v>
       </c>
       <c r="O6" t="n">
-        <v>17.84193918077571</v>
+        <v>17.78366509779812</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1010480569935</v>
+        <v>356.039672239387</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33120,28 +33387,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003531003809717301</v>
+        <v>0.01239404194952316</v>
       </c>
       <c r="J7" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K7" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L7" t="n">
-        <v>2.813478939378555e-06</v>
+        <v>3.526811867160529e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.55364541576015</v>
+        <v>12.48508158511003</v>
       </c>
       <c r="N7" t="n">
-        <v>254.9988258980039</v>
+        <v>253.0467518538498</v>
       </c>
       <c r="O7" t="n">
-        <v>15.96868266006949</v>
+        <v>15.90744328463408</v>
       </c>
       <c r="P7" t="n">
-        <v>362.1017898648114</v>
+        <v>362.0178317595894</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33192,28 +33459,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1851063436503285</v>
+        <v>-0.1890215775631632</v>
       </c>
       <c r="J8" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K8" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002603155558913661</v>
+        <v>0.002737883799260543</v>
       </c>
       <c r="M8" t="n">
-        <v>22.70305249885094</v>
+        <v>22.65647352573863</v>
       </c>
       <c r="N8" t="n">
-        <v>733.74761488847</v>
+        <v>731.0715109500882</v>
       </c>
       <c r="O8" t="n">
-        <v>27.08777611559262</v>
+        <v>27.03833410086665</v>
       </c>
       <c r="P8" t="n">
-        <v>331.7773496033624</v>
+        <v>331.8156843135502</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33270,28 +33537,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05869237501699083</v>
+        <v>-0.05042652980100715</v>
       </c>
       <c r="J9" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K9" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006080927342207998</v>
+        <v>0.0004528589787682336</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85445353058757</v>
+        <v>13.85932502229474</v>
       </c>
       <c r="N9" t="n">
-        <v>328.1421052753492</v>
+        <v>328.2720462946349</v>
       </c>
       <c r="O9" t="n">
-        <v>18.11469307703968</v>
+        <v>18.11827934144506</v>
       </c>
       <c r="P9" t="n">
-        <v>344.0637592545428</v>
+        <v>343.9853818607076</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33348,28 +33615,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0346982049910189</v>
+        <v>0.05277727768453844</v>
       </c>
       <c r="J10" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K10" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001758091394801209</v>
+        <v>0.0004105553255683292</v>
       </c>
       <c r="M10" t="n">
-        <v>15.10600195333831</v>
+        <v>15.11058897675715</v>
       </c>
       <c r="N10" t="n">
-        <v>387.9587591558806</v>
+        <v>387.6939799788477</v>
       </c>
       <c r="O10" t="n">
-        <v>19.69666873245018</v>
+        <v>19.68994616495555</v>
       </c>
       <c r="P10" t="n">
-        <v>350.4285832594272</v>
+        <v>350.253300672658</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33426,28 +33693,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2030204543415927</v>
+        <v>-0.1758944157056808</v>
       </c>
       <c r="J11" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K11" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004073177746856227</v>
+        <v>0.003079499117280005</v>
       </c>
       <c r="M11" t="n">
-        <v>18.45793520820495</v>
+        <v>18.45264292068454</v>
       </c>
       <c r="N11" t="n">
-        <v>587.1855727988969</v>
+        <v>587.6804827167545</v>
       </c>
       <c r="O11" t="n">
-        <v>24.23191228109942</v>
+        <v>24.24212207536202</v>
       </c>
       <c r="P11" t="n">
-        <v>367.9849197889426</v>
+        <v>367.7280388914843</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33498,28 +33765,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.050824493879949</v>
+        <v>-1.096703756287671</v>
       </c>
       <c r="J12" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K12" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02873109203606738</v>
+        <v>0.0315468846888507</v>
       </c>
       <c r="M12" t="n">
-        <v>40.53736783039241</v>
+        <v>40.49047461959398</v>
       </c>
       <c r="N12" t="n">
-        <v>2227.321455621768</v>
+        <v>2218.31549083408</v>
       </c>
       <c r="O12" t="n">
-        <v>47.19450662547251</v>
+        <v>47.09899670729813</v>
       </c>
       <c r="P12" t="n">
-        <v>349.740478761772</v>
+        <v>350.1754791322006</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33576,28 +33843,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.427804898649936</v>
+        <v>-0.493617856235671</v>
       </c>
       <c r="J13" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K13" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003648227824725736</v>
+        <v>0.004923091953772163</v>
       </c>
       <c r="M13" t="n">
-        <v>47.53640954563416</v>
+        <v>47.3539969591267</v>
       </c>
       <c r="N13" t="n">
-        <v>2884.849827824725</v>
+        <v>2868.934270748937</v>
       </c>
       <c r="O13" t="n">
-        <v>53.71079805611461</v>
+        <v>53.56243339084715</v>
       </c>
       <c r="P13" t="n">
-        <v>320.7140601564337</v>
+        <v>321.351983195861</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33648,28 +33915,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-1.746428501171779</v>
+        <v>-1.78732169276575</v>
       </c>
       <c r="J14" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K14" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04120910028921387</v>
+        <v>0.0436715694559564</v>
       </c>
       <c r="M14" t="n">
-        <v>49.90548235658768</v>
+        <v>49.68512525829746</v>
       </c>
       <c r="N14" t="n">
-        <v>4062.694862050709</v>
+        <v>4034.490936369324</v>
       </c>
       <c r="O14" t="n">
-        <v>63.73927252527055</v>
+        <v>63.51764271735313</v>
       </c>
       <c r="P14" t="n">
-        <v>347.3405221012064</v>
+        <v>347.7428046217712</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33707,7 +33974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O602"/>
+  <dimension ref="A1:O607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70649,6 +70916,315 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-37.20818093454268,174.613650228371</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-37.20742512314555,174.61357371181919</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-37.20688851312379,174.61287799809233</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-37.206294454658924,174.61234454271226</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-37.20556529161442,174.61219270500192</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-37.204948757121805,174.611722706532</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr"/>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-37.2034778526178,174.6114696471057</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-37.20285569715508,174.6110115351868</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>-37.20138793607581,174.61075689202602</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>-37.200662123215345,174.61060557704445</t>
+        </is>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>-37.200023764931416,174.61019446974888</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-37.208219226630845,174.61354206339035</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-37.206934943655256,174.61274684426976</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-37.206279119777236,174.61238785970914</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-37.205617776127674,174.61204445085178</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-37.204936158417425,174.61175829433765</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-37.2041615735912,174.61173992636498</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-37.203644141320865,174.61097734463357</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-37.202983161485854,174.61063290430573</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>-37.20237298874442,174.61013812230945</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>-37.20065480344189,174.6106273196155</t>
+        </is>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>-37.199997428520085,174.61027269910338</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:46+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-37.20808213467387,174.61392930998704</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-37.207384715799954,174.61368785019624</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-37.20687351261327,174.6129203703982</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-37.20622408590428,174.61254331537938</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-37.20553567553392,174.61227636187192</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-37.204915197026324,174.61181750429506</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-37.20354200780769,174.61127971479206</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-37.20298355100832,174.61063174722767</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>-37.20239064580488,174.61008567171118</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>-37.20134719313774,174.6108779151524</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr"/>
+      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-37.20806102697136,174.61398893292977</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-37.20728279374933,174.6139757468735</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-37.20681185253438,174.61309454249837</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-37.206248336495534,174.61247481417595</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-37.20555934651914,174.61220949819673</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-37.204931792114614,174.6117706279085</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-37.20406881154876,174.61200768219896</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-37.20350906549874,174.61137724109793</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-37.20290758892386,174.61085739204907</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>-37.202273920794845,174.6104324036202</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>-37.20132845589011,174.61093357224667</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>-37.2006518730996,174.61063602386616</t>
+        </is>
+      </c>
+      <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
+      <c r="H607" t="inlineStr"/>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>-37.20057672206915,174.61085925063853</t>
+        </is>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>-37.199922528754755,174.61049517932562</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O607"/>
+  <dimension ref="A1:O609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26671,6 +26671,104 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="n">
+        <v>299.6047368421052</v>
+      </c>
+      <c r="D608" t="n">
+        <v>334.1172727272727</v>
+      </c>
+      <c r="E608" t="n">
+        <v>347.4722222222222</v>
+      </c>
+      <c r="F608" t="n">
+        <v>328.79</v>
+      </c>
+      <c r="G608" t="n">
+        <v>347.1714285714286</v>
+      </c>
+      <c r="H608" t="n">
+        <v>304.4141935483871</v>
+      </c>
+      <c r="I608" t="n">
+        <v>330.4633333333333</v>
+      </c>
+      <c r="J608" t="n">
+        <v>335.5757142857143</v>
+      </c>
+      <c r="K608" t="n">
+        <v>331.6422222222222</v>
+      </c>
+      <c r="L608" t="n">
+        <v>100.665</v>
+      </c>
+      <c r="M608" t="n">
+        <v>254.6873913043478</v>
+      </c>
+      <c r="N608" t="n">
+        <v>169.3573913043478</v>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="n">
+        <v>284.2431578947368</v>
+      </c>
+      <c r="D609" t="n">
+        <v>357.5318181818182</v>
+      </c>
+      <c r="E609" t="n">
+        <v>358.0466666666667</v>
+      </c>
+      <c r="F609" t="n">
+        <v>355.22</v>
+      </c>
+      <c r="G609" t="n">
+        <v>360.0585714285714</v>
+      </c>
+      <c r="H609" t="n">
+        <v>338.5383870967742</v>
+      </c>
+      <c r="I609" t="n">
+        <v>352.93</v>
+      </c>
+      <c r="J609" t="n">
+        <v>358.5742857142857</v>
+      </c>
+      <c r="K609" t="n">
+        <v>310.7466666666667</v>
+      </c>
+      <c r="L609" t="n">
+        <v>124.47</v>
+      </c>
+      <c r="M609" t="n">
+        <v>254.8634782608696</v>
+      </c>
+      <c r="N609" t="n">
+        <v>154.1634782608696</v>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26682,7 +26780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32830,6 +32928,26 @@
       </c>
       <c r="B614" t="n">
         <v>-0.89</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -33006,7 +33124,7 @@
         <v>-0.2996273931622526</v>
       </c>
       <c r="J2" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K2" t="n">
         <v>417</v>
@@ -33075,28 +33193,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.5049537433729522</v>
+        <v>0.4665810637944612</v>
       </c>
       <c r="J3" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K3" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01489180537116563</v>
+        <v>0.01275388917797604</v>
       </c>
       <c r="M3" t="n">
-        <v>26.67725865663069</v>
+        <v>26.73309475184168</v>
       </c>
       <c r="N3" t="n">
-        <v>1004.503467484943</v>
+        <v>1008.695824868988</v>
       </c>
       <c r="O3" t="n">
-        <v>31.69390268624145</v>
+        <v>31.75997205397051</v>
       </c>
       <c r="P3" t="n">
-        <v>321.7357027187335</v>
+        <v>322.0933587502047</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33153,28 +33271,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1524096931312886</v>
+        <v>0.1427480110887131</v>
       </c>
       <c r="J4" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K4" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003991673532337647</v>
+        <v>0.003521738975959532</v>
       </c>
       <c r="M4" t="n">
-        <v>14.49471592631917</v>
+        <v>14.48423355022707</v>
       </c>
       <c r="N4" t="n">
-        <v>336.6028801727203</v>
+        <v>336.3568745079747</v>
       </c>
       <c r="O4" t="n">
-        <v>18.34674031463683</v>
+        <v>18.34003474664033</v>
       </c>
       <c r="P4" t="n">
-        <v>353.9131498619312</v>
+        <v>354.0051068425386</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33231,28 +33349,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2400220419012842</v>
+        <v>0.2315170592247089</v>
       </c>
       <c r="J5" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01232474170763287</v>
+        <v>0.01155272729157708</v>
       </c>
       <c r="M5" t="n">
-        <v>12.89128262787301</v>
+        <v>12.87875115414464</v>
       </c>
       <c r="N5" t="n">
-        <v>268.3088445678753</v>
+        <v>267.7315596203325</v>
       </c>
       <c r="O5" t="n">
-        <v>16.38013567000821</v>
+        <v>16.36250468664051</v>
       </c>
       <c r="P5" t="n">
-        <v>357.0441506681097</v>
+        <v>357.1252066981664</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33309,28 +33427,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07627902945219038</v>
+        <v>0.06305189092321443</v>
       </c>
       <c r="J6" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K6" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001056656974554371</v>
+        <v>0.00072452369471665</v>
       </c>
       <c r="M6" t="n">
-        <v>13.72373875056312</v>
+        <v>13.73491968488889</v>
       </c>
       <c r="N6" t="n">
-        <v>316.2587443106429</v>
+        <v>316.7442639308618</v>
       </c>
       <c r="O6" t="n">
-        <v>17.78366509779812</v>
+        <v>17.79731058140139</v>
       </c>
       <c r="P6" t="n">
-        <v>356.039672239387</v>
+        <v>356.1660776550279</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33387,28 +33505,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01239404194952316</v>
+        <v>0.005107657756097578</v>
       </c>
       <c r="J7" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K7" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L7" t="n">
-        <v>3.526811867160529e-05</v>
+        <v>6.032684280676825e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>12.48508158511003</v>
+        <v>12.47020168360364</v>
       </c>
       <c r="N7" t="n">
-        <v>253.0467518538498</v>
+        <v>252.4360833373103</v>
       </c>
       <c r="O7" t="n">
-        <v>15.90744328463408</v>
+        <v>15.88823726337539</v>
       </c>
       <c r="P7" t="n">
-        <v>362.0178317595894</v>
+        <v>362.0871138232594</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33459,28 +33577,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1890215775631632</v>
+        <v>-0.1940250125998101</v>
       </c>
       <c r="J8" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K8" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002737883799260543</v>
+        <v>0.002906727176820056</v>
       </c>
       <c r="M8" t="n">
-        <v>22.65647352573863</v>
+        <v>22.63060887789244</v>
       </c>
       <c r="N8" t="n">
-        <v>731.0715109500882</v>
+        <v>729.0791686916137</v>
       </c>
       <c r="O8" t="n">
-        <v>27.03833410086665</v>
+        <v>27.00146604707999</v>
       </c>
       <c r="P8" t="n">
-        <v>331.8156843135502</v>
+        <v>331.8646673597793</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33537,28 +33655,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05042652980100715</v>
+        <v>-0.05121760215606379</v>
       </c>
       <c r="J9" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K9" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004528589787682336</v>
+        <v>0.000470518289142019</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85932502229474</v>
+        <v>13.84763943565796</v>
       </c>
       <c r="N9" t="n">
-        <v>328.2720462946349</v>
+        <v>327.3900019503433</v>
       </c>
       <c r="O9" t="n">
-        <v>18.11827934144506</v>
+        <v>18.09392168520532</v>
       </c>
       <c r="P9" t="n">
-        <v>343.9853818607076</v>
+        <v>343.9928576638145</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33615,28 +33733,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05277727768453844</v>
+        <v>0.04909877012701849</v>
       </c>
       <c r="J10" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K10" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004105553255683292</v>
+        <v>0.0003578385543316909</v>
       </c>
       <c r="M10" t="n">
-        <v>15.11058897675715</v>
+        <v>15.09622933835391</v>
       </c>
       <c r="N10" t="n">
-        <v>387.6939799788477</v>
+        <v>386.6649038644815</v>
       </c>
       <c r="O10" t="n">
-        <v>19.68994616495555</v>
+        <v>19.66379678150894</v>
       </c>
       <c r="P10" t="n">
-        <v>350.253300672658</v>
+        <v>350.2890205827042</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33693,28 +33811,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1758944157056808</v>
+        <v>-0.2113524074062698</v>
       </c>
       <c r="J11" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K11" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003079499117280005</v>
+        <v>0.004417176107941345</v>
       </c>
       <c r="M11" t="n">
-        <v>18.45264292068454</v>
+        <v>18.5902424420769</v>
       </c>
       <c r="N11" t="n">
-        <v>587.6804827167545</v>
+        <v>593.4793413746982</v>
       </c>
       <c r="O11" t="n">
-        <v>24.24212207536202</v>
+        <v>24.36143143115154</v>
       </c>
       <c r="P11" t="n">
-        <v>367.7280388914843</v>
+        <v>368.0650434853859</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33765,28 +33883,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.096703756287671</v>
+        <v>-1.290185264237688</v>
       </c>
       <c r="J12" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K12" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0315468846888507</v>
+        <v>0.03960057500052272</v>
       </c>
       <c r="M12" t="n">
-        <v>40.49047461959398</v>
+        <v>41.46776254094073</v>
       </c>
       <c r="N12" t="n">
-        <v>2218.31549083408</v>
+        <v>2436.301506642083</v>
       </c>
       <c r="O12" t="n">
-        <v>47.09899670729813</v>
+        <v>49.35890503892974</v>
       </c>
       <c r="P12" t="n">
-        <v>350.1754791322006</v>
+        <v>352.0168103602182</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33843,28 +33961,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.493617856235671</v>
+        <v>-0.5427760336699664</v>
       </c>
       <c r="J13" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K13" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004923091953772163</v>
+        <v>0.005973119133308002</v>
       </c>
       <c r="M13" t="n">
-        <v>47.3539969591267</v>
+        <v>47.33805952958559</v>
       </c>
       <c r="N13" t="n">
-        <v>2868.934270748937</v>
+        <v>2868.877956537779</v>
       </c>
       <c r="O13" t="n">
-        <v>53.56243339084715</v>
+        <v>53.56190770069508</v>
       </c>
       <c r="P13" t="n">
-        <v>321.351983195861</v>
+        <v>321.8300676086015</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33915,28 +34033,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-1.78732169276575</v>
+        <v>-1.930338150709338</v>
       </c>
       <c r="J14" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K14" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0436715694559564</v>
+        <v>0.0497687919573675</v>
       </c>
       <c r="M14" t="n">
-        <v>49.68512525829746</v>
+        <v>50.15532529342063</v>
       </c>
       <c r="N14" t="n">
-        <v>4034.490936369324</v>
+        <v>4122.828963031815</v>
       </c>
       <c r="O14" t="n">
-        <v>63.51764271735313</v>
+        <v>64.20925916900003</v>
       </c>
       <c r="P14" t="n">
-        <v>347.7428046217712</v>
+        <v>349.1543091016142</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33974,7 +34092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O607"/>
+  <dimension ref="A1:O609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44445,7 +44563,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>-37.20356007404241,174.61122622923926</t>
+          <t>-37.203560074042414,174.61122622923926</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -48113,7 +48231,7 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>-37.20408918417185,174.61194887722206</t>
+          <t>-37.20408918417184,174.61194887722206</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -71225,6 +71343,152 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-37.207314649142795,174.61388576603</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-37.20678324729241,174.6131753437927</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-37.206174668720756,174.6126829047578</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-37.205449234180776,174.61252053240145</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-37.2048589767966,174.61197630985612</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-37.2040493273778,174.61206392257742</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>-37.20348309956527,174.61145411349176</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>-37.20283887261399,174.611061511873</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>-37.20216272970626,174.61076269323942</t>
+        </is>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>-37.20069287750452,174.61282143164746</t>
+        </is>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>-37.20056891436342,174.61088244235938</t>
+        </is>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>-37.19960821126546,174.61142880126667</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-37.20725861900487,174.61404403227195</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-37.2068686483862,174.61293411048572</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-37.206213237156334,174.61257396003754</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-37.205545632670876,174.61224823586278</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-37.20490597984072,174.61184354018167</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-37.204171547832495,174.6117111357694</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-37.20356186196733,174.6112209360363</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>-37.202919269663546,174.61082269460798</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>-37.202089684202356,174.6109796706047</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>-37.200776097611964,174.61257424966675</t>
+        </is>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>-37.20056952992147,174.6108806139292</t>
+        </is>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>-37.199555096019786,174.61158656737783</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O609"/>
+  <dimension ref="A1:O610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26677,7 +26677,9 @@
           <t>2025-05-30 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr"/>
+      <c r="B608" t="n">
+        <v>247.7407407407408</v>
+      </c>
       <c r="C608" t="n">
         <v>299.6047368421052</v>
       </c>
@@ -26705,9 +26707,7 @@
       <c r="K608" t="n">
         <v>331.6422222222222</v>
       </c>
-      <c r="L608" t="n">
-        <v>100.665</v>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>254.6873913043478</v>
       </c>
@@ -26754,9 +26754,7 @@
       <c r="K609" t="n">
         <v>310.7466666666667</v>
       </c>
-      <c r="L609" t="n">
-        <v>124.47</v>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>254.8634782608696</v>
       </c>
@@ -26766,6 +26764,57 @@
       <c r="O609" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>240.4914814814815</v>
+      </c>
+      <c r="C610" t="n">
+        <v>297.7052631578948</v>
+      </c>
+      <c r="D610" t="n">
+        <v>370.8463636363636</v>
+      </c>
+      <c r="E610" t="n">
+        <v>372.2544444444445</v>
+      </c>
+      <c r="F610" t="n">
+        <v>370.62</v>
+      </c>
+      <c r="G610" t="n">
+        <v>371.5142857142857</v>
+      </c>
+      <c r="H610" t="n">
+        <v>365.9706451612903</v>
+      </c>
+      <c r="I610" t="n">
+        <v>365.3766666666667</v>
+      </c>
+      <c r="J610" t="n">
+        <v>368.9571428571429</v>
+      </c>
+      <c r="K610" t="n">
+        <v>311.5244444444444</v>
+      </c>
+      <c r="L610" t="n">
+        <v>249.74</v>
+      </c>
+      <c r="M610" t="n">
+        <v>252.7191304347826</v>
+      </c>
+      <c r="N610" t="n">
+        <v>165.0291304347826</v>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -26780,7 +26829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B616"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32948,6 +32997,16 @@
       </c>
       <c r="B616" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -33121,28 +33180,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2996273931622526</v>
+        <v>-0.3896546220047721</v>
       </c>
       <c r="J2" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K2" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01390639148339523</v>
+        <v>0.02071017924838414</v>
       </c>
       <c r="M2" t="n">
-        <v>14.32790649179673</v>
+        <v>14.85528187006475</v>
       </c>
       <c r="N2" t="n">
-        <v>368.1574745961303</v>
+        <v>417.0594904488434</v>
       </c>
       <c r="O2" t="n">
-        <v>19.18743011964161</v>
+        <v>20.42203443462094</v>
       </c>
       <c r="P2" t="n">
-        <v>355.5233635251845</v>
+        <v>356.3982956265609</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33193,28 +33252,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.4665810637944612</v>
+        <v>0.4503352566854633</v>
       </c>
       <c r="J3" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K3" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01275388917797604</v>
+        <v>0.01191238367303671</v>
       </c>
       <c r="M3" t="n">
-        <v>26.73309475184168</v>
+        <v>26.74726512029059</v>
       </c>
       <c r="N3" t="n">
-        <v>1008.695824868988</v>
+        <v>1009.44472687722</v>
       </c>
       <c r="O3" t="n">
-        <v>31.75997205397051</v>
+        <v>31.77175989581345</v>
       </c>
       <c r="P3" t="n">
-        <v>322.0933587502047</v>
+        <v>322.2450258295808</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33271,28 +33330,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1427480110887131</v>
+        <v>0.1480242101307791</v>
       </c>
       <c r="J4" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K4" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003521738975959532</v>
+        <v>0.00379831098076111</v>
       </c>
       <c r="M4" t="n">
-        <v>14.48423355022707</v>
+        <v>14.48106512792259</v>
       </c>
       <c r="N4" t="n">
-        <v>336.3568745079747</v>
+        <v>336.0034129917517</v>
       </c>
       <c r="O4" t="n">
-        <v>18.34003474664033</v>
+        <v>18.33039587656938</v>
       </c>
       <c r="P4" t="n">
-        <v>354.0051068425386</v>
+        <v>353.9547768959523</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33349,28 +33408,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2315170592247089</v>
+        <v>0.2352239358137859</v>
       </c>
       <c r="J5" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K5" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01155272729157708</v>
+        <v>0.01196536586445784</v>
       </c>
       <c r="M5" t="n">
-        <v>12.87875115414464</v>
+        <v>12.87136374490872</v>
       </c>
       <c r="N5" t="n">
-        <v>267.7315596203325</v>
+        <v>267.3296705858085</v>
       </c>
       <c r="O5" t="n">
-        <v>16.36250468664051</v>
+        <v>16.35021928249919</v>
       </c>
       <c r="P5" t="n">
-        <v>357.1252066981664</v>
+        <v>357.0898084342778</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33427,28 +33486,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06305189092321443</v>
+        <v>0.06833847224006043</v>
       </c>
       <c r="J6" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K6" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00072452369471665</v>
+        <v>0.0008538974117295872</v>
       </c>
       <c r="M6" t="n">
-        <v>13.73491968488889</v>
+        <v>13.73226611017088</v>
       </c>
       <c r="N6" t="n">
-        <v>316.7442639308618</v>
+        <v>316.4095152761656</v>
       </c>
       <c r="O6" t="n">
-        <v>17.79731058140139</v>
+        <v>17.78790362229809</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1660776550279</v>
+        <v>356.1154492829841</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33505,28 +33564,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005107657756097578</v>
+        <v>0.008978412847341317</v>
       </c>
       <c r="J7" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K7" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>6.032684280676825e-06</v>
+        <v>1.871170873812833e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.47020168360364</v>
+        <v>12.46190213995373</v>
       </c>
       <c r="N7" t="n">
-        <v>252.4360833373103</v>
+        <v>252.0641687509213</v>
       </c>
       <c r="O7" t="n">
-        <v>15.88823726337539</v>
+        <v>15.87652886341726</v>
       </c>
       <c r="P7" t="n">
-        <v>362.0871138232594</v>
+        <v>362.050231432768</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33577,28 +33636,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1940250125998101</v>
+        <v>-0.176149170499833</v>
       </c>
       <c r="J8" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K8" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002906727176820056</v>
+        <v>0.00239669559635125</v>
       </c>
       <c r="M8" t="n">
-        <v>22.63060887789244</v>
+        <v>22.66540420565764</v>
       </c>
       <c r="N8" t="n">
-        <v>729.0791686916137</v>
+        <v>730.9909032682178</v>
       </c>
       <c r="O8" t="n">
-        <v>27.00146604707999</v>
+        <v>27.03684344127875</v>
       </c>
       <c r="P8" t="n">
-        <v>331.8646673597793</v>
+        <v>331.6890713714719</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33655,28 +33714,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05121760215606379</v>
+        <v>-0.04206547665810924</v>
       </c>
       <c r="J9" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K9" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000470518289142019</v>
+        <v>0.0003177427811413835</v>
       </c>
       <c r="M9" t="n">
-        <v>13.84763943565796</v>
+        <v>13.86917627453546</v>
       </c>
       <c r="N9" t="n">
-        <v>327.3900019503433</v>
+        <v>327.7943019357241</v>
       </c>
       <c r="O9" t="n">
-        <v>18.09392168520532</v>
+        <v>18.10509049786065</v>
       </c>
       <c r="P9" t="n">
-        <v>343.9928576638145</v>
+        <v>343.9056421010442</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33733,28 +33792,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04909877012701849</v>
+        <v>0.05614484000608224</v>
       </c>
       <c r="J10" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K10" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003578385543316909</v>
+        <v>0.0004690976560305371</v>
       </c>
       <c r="M10" t="n">
-        <v>15.09622933835391</v>
+        <v>15.09834430032421</v>
       </c>
       <c r="N10" t="n">
-        <v>386.6649038644815</v>
+        <v>386.4774937211428</v>
       </c>
       <c r="O10" t="n">
-        <v>19.66379678150894</v>
+        <v>19.65903084389317</v>
       </c>
       <c r="P10" t="n">
-        <v>350.2890205827042</v>
+        <v>350.2203845902458</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33811,28 +33870,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2113524074062698</v>
+        <v>-0.2328288244826225</v>
       </c>
       <c r="J11" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K11" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004417176107941345</v>
+        <v>0.005326653221100153</v>
       </c>
       <c r="M11" t="n">
-        <v>18.5902424420769</v>
+        <v>18.68263497156404</v>
       </c>
       <c r="N11" t="n">
-        <v>593.4793413746982</v>
+        <v>598.0630931367378</v>
       </c>
       <c r="O11" t="n">
-        <v>24.36143143115154</v>
+        <v>24.45532852236375</v>
       </c>
       <c r="P11" t="n">
-        <v>368.0650434853859</v>
+        <v>368.2694872126995</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33883,28 +33942,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.290185264237688</v>
+        <v>-1.13039632800249</v>
       </c>
       <c r="J12" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K12" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03960057500052272</v>
+        <v>0.03340963392624563</v>
       </c>
       <c r="M12" t="n">
-        <v>41.46776254094073</v>
+        <v>40.58466280234692</v>
       </c>
       <c r="N12" t="n">
-        <v>2436.301506642083</v>
+        <v>2226.149868472972</v>
       </c>
       <c r="O12" t="n">
-        <v>49.35890503892974</v>
+        <v>47.18209266737723</v>
       </c>
       <c r="P12" t="n">
-        <v>352.0168103602182</v>
+        <v>350.4967305117243</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33961,28 +34020,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5427760336699664</v>
+        <v>-0.5678204811806573</v>
       </c>
       <c r="J13" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K13" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005973119133308002</v>
+        <v>0.006546937172165923</v>
       </c>
       <c r="M13" t="n">
-        <v>47.33805952958559</v>
+        <v>47.33190194316123</v>
       </c>
       <c r="N13" t="n">
-        <v>2868.877956537779</v>
+        <v>2869.249177749895</v>
       </c>
       <c r="O13" t="n">
-        <v>53.56190770069508</v>
+        <v>53.56537293578656</v>
       </c>
       <c r="P13" t="n">
-        <v>321.8300676086015</v>
+        <v>322.0740760696357</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34033,28 +34092,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-1.930338150709338</v>
+        <v>-1.998639937666376</v>
       </c>
       <c r="J14" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K14" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0497687919573675</v>
+        <v>0.05280000940361829</v>
       </c>
       <c r="M14" t="n">
-        <v>50.15532529342063</v>
+        <v>50.3847886404802</v>
       </c>
       <c r="N14" t="n">
-        <v>4122.828963031815</v>
+        <v>4162.516200580892</v>
       </c>
       <c r="O14" t="n">
-        <v>64.20925916900003</v>
+        <v>64.5175650546492</v>
       </c>
       <c r="P14" t="n">
-        <v>349.1543091016142</v>
+        <v>349.8296275246913</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34092,7 +34151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O609"/>
+  <dimension ref="A1:O610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71349,7 +71408,11 @@
           <t>2025-05-30 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr"/>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-37.20778275379022,174.61477496045742</t>
+        </is>
+      </c>
       <c r="C608" t="inlineStr">
         <is>
           <t>-37.207314649142795,174.61388576603</t>
@@ -71395,11 +71458,7 @@
           <t>-37.20216272970626,174.61076269323942</t>
         </is>
       </c>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>-37.20069287750452,174.61282143164746</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="inlineStr">
         <is>
           <t>-37.20056891436342,174.61088244235938</t>
@@ -71468,11 +71527,7 @@
           <t>-37.202089684202356,174.6109796706047</t>
         </is>
       </c>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>-37.200776097611964,174.61257424966675</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="inlineStr">
         <is>
           <t>-37.20056952992147,174.6108806139292</t>
@@ -71486,6 +71541,83 @@
       <c r="O609" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-37.20775631223693,174.61484964783662</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-37.20730772097475,174.61390533581272</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-37.20691721100882,174.6127969343159</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-37.206265057385366,174.61242758220365</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-37.20560180101356,174.6120895761818</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-37.204947761939174,174.6117255176453</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-37.20426979946292,174.61142753147874</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-37.20360549661235,174.61109175412741</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>-37.202955565288924,174.6107148788037</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>-37.20209240312098,174.61097159424554</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>-37.201214021790314,174.61127348487452</t>
+        </is>
+      </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>-37.20056203379058,174.61090288014395</t>
+        </is>
+      </c>
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>-37.19959308044822,174.61147374381935</t>
+        </is>
+      </c>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O610"/>
+  <dimension ref="A1:O611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26818,6 +26818,55 @@
         </is>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>246.2333333333333</v>
+      </c>
+      <c r="C611" t="n">
+        <v>274.3984210526315</v>
+      </c>
+      <c r="D611" t="n">
+        <v>369.9354545454545</v>
+      </c>
+      <c r="E611" t="n">
+        <v>378.3</v>
+      </c>
+      <c r="F611" t="n">
+        <v>363.63</v>
+      </c>
+      <c r="G611" t="n">
+        <v>370.59</v>
+      </c>
+      <c r="H611" t="n">
+        <v>358.1709677419355</v>
+      </c>
+      <c r="I611" t="n">
+        <v>330.41</v>
+      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>311.71</v>
+      </c>
+      <c r="L611" t="n">
+        <v>241.595</v>
+      </c>
+      <c r="M611" t="n">
+        <v>214.1917391304348</v>
+      </c>
+      <c r="N611" t="n">
+        <v>154.7517391304348</v>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26829,7 +26878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33007,6 +33056,16 @@
       </c>
       <c r="B617" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -33180,28 +33239,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3896546220047721</v>
+        <v>-0.4330718686626819</v>
       </c>
       <c r="J2" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K2" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02071017924838414</v>
+        <v>0.02422932574600412</v>
       </c>
       <c r="M2" t="n">
-        <v>14.85528187006475</v>
+        <v>15.11930241562336</v>
       </c>
       <c r="N2" t="n">
-        <v>417.0594904488434</v>
+        <v>439.7538476371704</v>
       </c>
       <c r="O2" t="n">
-        <v>20.42203443462094</v>
+        <v>20.97030871582892</v>
       </c>
       <c r="P2" t="n">
-        <v>356.3982956265609</v>
+        <v>356.8217052152118</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33252,28 +33311,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.4503352566854633</v>
+        <v>0.4238955916357563</v>
       </c>
       <c r="J3" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01191238367303671</v>
+        <v>0.01053270273791773</v>
       </c>
       <c r="M3" t="n">
-        <v>26.74726512029059</v>
+        <v>26.81033994321393</v>
       </c>
       <c r="N3" t="n">
-        <v>1009.44472687722</v>
+        <v>1015.506007284446</v>
       </c>
       <c r="O3" t="n">
-        <v>31.77175989581345</v>
+        <v>31.86700499395019</v>
       </c>
       <c r="P3" t="n">
-        <v>322.2450258295808</v>
+        <v>322.4924298274265</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33330,28 +33389,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1480242101307791</v>
+        <v>0.1528858295449641</v>
       </c>
       <c r="J4" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K4" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00379831098076111</v>
+        <v>0.004064818127907044</v>
       </c>
       <c r="M4" t="n">
-        <v>14.48106512792259</v>
+        <v>14.47565048585991</v>
       </c>
       <c r="N4" t="n">
-        <v>336.0034129917517</v>
+        <v>335.5973335946807</v>
       </c>
       <c r="O4" t="n">
-        <v>18.33039587656938</v>
+        <v>18.31931586044306</v>
       </c>
       <c r="P4" t="n">
-        <v>353.9547768959523</v>
+        <v>353.9082973038391</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33408,28 +33467,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2352239358137859</v>
+        <v>0.2413343148912234</v>
       </c>
       <c r="J5" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K5" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01196536586445784</v>
+        <v>0.01261910810271893</v>
       </c>
       <c r="M5" t="n">
-        <v>12.87136374490872</v>
+        <v>12.87725822242691</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3296705858085</v>
+        <v>267.2429005388482</v>
       </c>
       <c r="O5" t="n">
-        <v>16.35021928249919</v>
+        <v>16.34756558447918</v>
       </c>
       <c r="P5" t="n">
-        <v>357.0898084342778</v>
+        <v>357.0313263658973</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33486,28 +33545,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06833847224006043</v>
+        <v>0.07070115910442389</v>
       </c>
       <c r="J6" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K6" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008538974117295872</v>
+        <v>0.0009178367325359815</v>
       </c>
       <c r="M6" t="n">
-        <v>13.73226611017088</v>
+        <v>13.7144894657176</v>
       </c>
       <c r="N6" t="n">
-        <v>316.4095152761656</v>
+        <v>315.7916739721268</v>
       </c>
       <c r="O6" t="n">
-        <v>17.78790362229809</v>
+        <v>17.77052824122363</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1154492829841</v>
+        <v>356.0927724097841</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33564,28 +33623,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008978412847341317</v>
+        <v>0.01242825740050936</v>
       </c>
       <c r="J7" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L7" t="n">
-        <v>1.871170873812833e-05</v>
+        <v>3.599520655250821e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.46190213995373</v>
+        <v>12.45152648975836</v>
       </c>
       <c r="N7" t="n">
-        <v>252.0641687509213</v>
+        <v>251.6554527232853</v>
       </c>
       <c r="O7" t="n">
-        <v>15.87652886341726</v>
+        <v>15.86365193526652</v>
       </c>
       <c r="P7" t="n">
-        <v>362.050231432768</v>
+        <v>362.0172857608395</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33636,28 +33695,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.176149170499833</v>
+        <v>-0.162010763475185</v>
       </c>
       <c r="J8" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K8" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00239669559635125</v>
+        <v>0.002031667103707613</v>
       </c>
       <c r="M8" t="n">
-        <v>22.66540420565764</v>
+        <v>22.68258490951257</v>
       </c>
       <c r="N8" t="n">
-        <v>730.9909032682178</v>
+        <v>731.534765200444</v>
       </c>
       <c r="O8" t="n">
-        <v>27.03684344127875</v>
+        <v>27.04689936389094</v>
       </c>
       <c r="P8" t="n">
-        <v>331.6890713714719</v>
+        <v>331.5498826623598</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33714,28 +33773,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04206547665810924</v>
+        <v>-0.04705433303394727</v>
       </c>
       <c r="J9" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K9" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003177427811413835</v>
+        <v>0.0003988875689513449</v>
       </c>
       <c r="M9" t="n">
-        <v>13.86917627453546</v>
+        <v>13.86450000657551</v>
       </c>
       <c r="N9" t="n">
-        <v>327.7943019357241</v>
+        <v>327.412563009554</v>
       </c>
       <c r="O9" t="n">
-        <v>18.10509049786065</v>
+        <v>18.09454511750859</v>
       </c>
       <c r="P9" t="n">
-        <v>343.9056421010442</v>
+        <v>343.9532925598048</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33795,7 +33854,7 @@
         <v>0.05614484000608224</v>
       </c>
       <c r="J10" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K10" t="n">
         <v>458</v>
@@ -33870,28 +33929,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2328288244826225</v>
+        <v>-0.2540160413393079</v>
       </c>
       <c r="J11" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K11" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005326653221100153</v>
+        <v>0.006301680119223607</v>
       </c>
       <c r="M11" t="n">
-        <v>18.68263497156404</v>
+        <v>18.77373095597418</v>
       </c>
       <c r="N11" t="n">
-        <v>598.0630931367378</v>
+        <v>602.4999351226229</v>
       </c>
       <c r="O11" t="n">
-        <v>24.45532852236375</v>
+        <v>24.54587409571358</v>
       </c>
       <c r="P11" t="n">
-        <v>368.2694872126995</v>
+        <v>368.471643631235</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33942,28 +34001,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.13039632800249</v>
+        <v>-1.167484844108702</v>
       </c>
       <c r="J12" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K12" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03340963392624563</v>
+        <v>0.03547154055989798</v>
       </c>
       <c r="M12" t="n">
-        <v>40.58466280234692</v>
+        <v>40.70012540662071</v>
       </c>
       <c r="N12" t="n">
-        <v>2226.149868472972</v>
+        <v>2236.959203477762</v>
       </c>
       <c r="O12" t="n">
-        <v>47.18209266737723</v>
+        <v>47.29650307874529</v>
       </c>
       <c r="P12" t="n">
-        <v>350.4967305117243</v>
+        <v>350.8512326709057</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34020,28 +34079,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5678204811806573</v>
+        <v>-0.6100486312914633</v>
       </c>
       <c r="J13" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K13" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006546937172165923</v>
+        <v>0.007527800995840384</v>
       </c>
       <c r="M13" t="n">
-        <v>47.33190194316123</v>
+        <v>47.40334158196837</v>
       </c>
       <c r="N13" t="n">
-        <v>2869.249177749895</v>
+        <v>2883.892131069646</v>
       </c>
       <c r="O13" t="n">
-        <v>53.56537293578656</v>
+        <v>53.70188200677557</v>
       </c>
       <c r="P13" t="n">
-        <v>322.0740760696357</v>
+        <v>322.4864952377175</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34092,28 +34151,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-1.998639937666376</v>
+        <v>-2.07129103847327</v>
       </c>
       <c r="J14" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K14" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05280000940361829</v>
+        <v>0.05602049950005938</v>
       </c>
       <c r="M14" t="n">
-        <v>50.3847886404802</v>
+        <v>50.63770446345534</v>
       </c>
       <c r="N14" t="n">
-        <v>4162.516200580892</v>
+        <v>4209.182446101519</v>
       </c>
       <c r="O14" t="n">
-        <v>64.5175650546492</v>
+        <v>64.87821241450415</v>
       </c>
       <c r="P14" t="n">
-        <v>349.8296275246913</v>
+        <v>350.5497009138494</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34151,7 +34210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O610"/>
+  <dimension ref="A1:O611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71621,6 +71680,79 @@
         </is>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-37.20777725555041,174.61479049091875</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-37.20722271100136,174.61414545983786</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-37.20691388862215,174.61280631917228</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-37.20628710737213,174.6123652968676</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-37.205576306447384,174.6121615912228</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-37.20494439082263,174.61173504010705</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-37.20424186413329,174.61150816735227</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-37.20348291259168,174.61145466702817</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>-37.2020930517772,174.61096966745689</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>-37.20118554857836,174.61135806049634</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>-37.20042735048062,174.6113029353512</t>
+        </is>
+      </c>
+      <c r="N611" t="inlineStr">
+        <is>
+          <t>-37.19955715248007,174.61158045917085</t>
+        </is>
+      </c>
+      <c r="O611" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O611"/>
+  <dimension ref="A1:O616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26677,9 +26677,7 @@
           <t>2025-05-30 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B608" t="n">
-        <v>247.7407407407408</v>
-      </c>
+      <c r="B608" t="inlineStr"/>
       <c r="C608" t="n">
         <v>299.6047368421052</v>
       </c>
@@ -26773,9 +26771,7 @@
           <t>2025-06-15 22:05:40+00:00</t>
         </is>
       </c>
-      <c r="B610" t="n">
-        <v>240.4914814814815</v>
-      </c>
+      <c r="B610" t="inlineStr"/>
       <c r="C610" t="n">
         <v>297.7052631578948</v>
       </c>
@@ -26824,9 +26820,7 @@
           <t>2025-07-01 22:05:47+00:00</t>
         </is>
       </c>
-      <c r="B611" t="n">
-        <v>246.2333333333333</v>
-      </c>
+      <c r="B611" t="inlineStr"/>
       <c r="C611" t="n">
         <v>274.3984210526315</v>
       </c>
@@ -26864,6 +26858,253 @@
       <c r="O611" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>340.5192592592592</v>
+      </c>
+      <c r="C612" t="n">
+        <v>304.5278947368421</v>
+      </c>
+      <c r="D612" t="n">
+        <v>354.3872727272728</v>
+      </c>
+      <c r="E612" t="n">
+        <v>381.0477777777778</v>
+      </c>
+      <c r="F612" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="G612" t="n">
+        <v>378.8042857142857</v>
+      </c>
+      <c r="H612" t="n">
+        <v>344.6690322580645</v>
+      </c>
+      <c r="I612" t="n">
+        <v>351.8666666666667</v>
+      </c>
+      <c r="J612" t="n">
+        <v>379.4571428571429</v>
+      </c>
+      <c r="K612" t="n">
+        <v>396.7977777777778</v>
+      </c>
+      <c r="L612" t="inlineStr"/>
+      <c r="M612" t="n">
+        <v>277.3295652173913</v>
+      </c>
+      <c r="N612" t="n">
+        <v>278.7995652173913</v>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>317.2366666666667</v>
+      </c>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="n">
+        <v>379.199090909091</v>
+      </c>
+      <c r="E613" t="n">
+        <v>382.21</v>
+      </c>
+      <c r="F613" t="n">
+        <v>366.29</v>
+      </c>
+      <c r="G613" t="n">
+        <v>357.6685714285715</v>
+      </c>
+      <c r="H613" t="n">
+        <v>359.7696774193548</v>
+      </c>
+      <c r="I613" t="n">
+        <v>349.14</v>
+      </c>
+      <c r="J613" t="n">
+        <v>395.3042857142857</v>
+      </c>
+      <c r="K613" t="n">
+        <v>402.61</v>
+      </c>
+      <c r="L613" t="inlineStr"/>
+      <c r="M613" t="n">
+        <v>258.4491304347826</v>
+      </c>
+      <c r="N613" t="n">
+        <v>261.5791304347826</v>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>322.9207407407408</v>
+      </c>
+      <c r="C614" t="n">
+        <v>289.7963157894737</v>
+      </c>
+      <c r="D614" t="n">
+        <v>362.0809090909091</v>
+      </c>
+      <c r="E614" t="n">
+        <v>375.3622222222222</v>
+      </c>
+      <c r="F614" t="n">
+        <v>364.27</v>
+      </c>
+      <c r="G614" t="n">
+        <v>351.7142857142857</v>
+      </c>
+      <c r="H614" t="n">
+        <v>353.1887096774193</v>
+      </c>
+      <c r="I614" t="n">
+        <v>344.8733333333333</v>
+      </c>
+      <c r="J614" t="n">
+        <v>384.4771428571429</v>
+      </c>
+      <c r="K614" t="n">
+        <v>394.4022222222222</v>
+      </c>
+      <c r="L614" t="inlineStr"/>
+      <c r="M614" t="n">
+        <v>262.5960869565217</v>
+      </c>
+      <c r="N614" t="n">
+        <v>239.5760869565217</v>
+      </c>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>333.7540740740741</v>
+      </c>
+      <c r="C615" t="n">
+        <v>304.1257894736842</v>
+      </c>
+      <c r="D615" t="n">
+        <v>343.3772727272727</v>
+      </c>
+      <c r="E615" t="n">
+        <v>356.9722222222222</v>
+      </c>
+      <c r="F615" t="n">
+        <v>350.68</v>
+      </c>
+      <c r="G615" t="n">
+        <v>372.0671428571428</v>
+      </c>
+      <c r="H615" t="n">
+        <v>289.8083870967742</v>
+      </c>
+      <c r="I615" t="n">
+        <v>336.6333333333333</v>
+      </c>
+      <c r="J615" t="n">
+        <v>343.5685714285714</v>
+      </c>
+      <c r="K615" t="n">
+        <v>345.8522222222222</v>
+      </c>
+      <c r="L615" t="n">
+        <v>295.31</v>
+      </c>
+      <c r="M615" t="n">
+        <v>281.2660869565217</v>
+      </c>
+      <c r="N615" t="n">
+        <v>290.2360869565218</v>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>342.6255555555555</v>
+      </c>
+      <c r="C616" t="n">
+        <v>309.7447368421053</v>
+      </c>
+      <c r="D616" t="n">
+        <v>349.5263636363636</v>
+      </c>
+      <c r="E616" t="n">
+        <v>360.4766666666667</v>
+      </c>
+      <c r="F616" t="n">
+        <v>351.4</v>
+      </c>
+      <c r="G616" t="n">
+        <v>353.2185714285715</v>
+      </c>
+      <c r="H616" t="n">
+        <v>313.9874193548387</v>
+      </c>
+      <c r="I616" t="n">
+        <v>337.44</v>
+      </c>
+      <c r="J616" t="n">
+        <v>344.9442857142857</v>
+      </c>
+      <c r="K616" t="n">
+        <v>370.8366666666667</v>
+      </c>
+      <c r="L616" t="n">
+        <v>306.995</v>
+      </c>
+      <c r="M616" t="n">
+        <v>279.4717391304348</v>
+      </c>
+      <c r="N616" t="n">
+        <v>298.8417391304348</v>
+      </c>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -26878,7 +27119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B618"/>
+  <dimension ref="A1:B623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33066,6 +33307,56 @@
       </c>
       <c r="B618" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -33239,28 +33530,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4330718686626819</v>
+        <v>-0.334854230093794</v>
       </c>
       <c r="J2" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K2" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02422932574600412</v>
+        <v>0.01751459831560298</v>
       </c>
       <c r="M2" t="n">
-        <v>15.11930241562336</v>
+        <v>14.37979134293697</v>
       </c>
       <c r="N2" t="n">
-        <v>439.7538476371704</v>
+        <v>368.0032062756991</v>
       </c>
       <c r="O2" t="n">
-        <v>20.97030871582892</v>
+        <v>19.18340966240619</v>
       </c>
       <c r="P2" t="n">
-        <v>356.8217052152118</v>
+        <v>355.8685108906815</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33311,28 +33602,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.4238955916357563</v>
+        <v>0.369115090772562</v>
       </c>
       <c r="J3" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K3" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01053270273791773</v>
+        <v>0.008086360283620531</v>
       </c>
       <c r="M3" t="n">
-        <v>26.81033994321393</v>
+        <v>26.81366089846498</v>
       </c>
       <c r="N3" t="n">
-        <v>1015.506007284446</v>
+        <v>1015.502185165376</v>
       </c>
       <c r="O3" t="n">
-        <v>31.86700499395019</v>
+        <v>31.86694502404295</v>
       </c>
       <c r="P3" t="n">
-        <v>322.4924298274265</v>
+        <v>323.0076887083633</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33389,28 +33680,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1528858295449641</v>
+        <v>0.1525412541067521</v>
       </c>
       <c r="J4" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004064818127907044</v>
+        <v>0.004115242274588038</v>
       </c>
       <c r="M4" t="n">
-        <v>14.47565048585991</v>
+        <v>14.43213510779053</v>
       </c>
       <c r="N4" t="n">
-        <v>335.5973335946807</v>
+        <v>333.6583045586163</v>
       </c>
       <c r="O4" t="n">
-        <v>18.31931586044306</v>
+        <v>18.26631611898295</v>
       </c>
       <c r="P4" t="n">
-        <v>353.9082973038391</v>
+        <v>353.9117698513569</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33467,28 +33758,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2413343148912234</v>
+        <v>0.2569075256646549</v>
       </c>
       <c r="J5" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K5" t="n">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01261910810271893</v>
+        <v>0.01448849210091241</v>
       </c>
       <c r="M5" t="n">
-        <v>12.87725822242691</v>
+        <v>12.86614409208233</v>
       </c>
       <c r="N5" t="n">
-        <v>267.2429005388482</v>
+        <v>266.2126897183128</v>
       </c>
       <c r="O5" t="n">
-        <v>16.34756558447918</v>
+        <v>16.3160255490825</v>
       </c>
       <c r="P5" t="n">
-        <v>357.0313263658973</v>
+        <v>356.88177150613</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33545,28 +33836,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07070115910442389</v>
+        <v>0.07729074150966803</v>
       </c>
       <c r="J6" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K6" t="n">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009178367325359815</v>
+        <v>0.001118091758741113</v>
       </c>
       <c r="M6" t="n">
-        <v>13.7144894657176</v>
+        <v>13.66044651931919</v>
       </c>
       <c r="N6" t="n">
-        <v>315.7916739721268</v>
+        <v>313.3523982719684</v>
       </c>
       <c r="O6" t="n">
-        <v>17.77052824122363</v>
+        <v>17.70176257529087</v>
       </c>
       <c r="P6" t="n">
-        <v>356.0927724097841</v>
+        <v>356.029446651118</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33623,28 +33914,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01242825740050936</v>
+        <v>0.01311729628654082</v>
       </c>
       <c r="J7" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K7" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L7" t="n">
-        <v>3.599520655250821e-05</v>
+        <v>4.080296889064083e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.45152648975836</v>
+        <v>12.42569839840744</v>
       </c>
       <c r="N7" t="n">
-        <v>251.6554527232853</v>
+        <v>250.1694224385411</v>
       </c>
       <c r="O7" t="n">
-        <v>15.86365193526652</v>
+        <v>15.81674500137563</v>
       </c>
       <c r="P7" t="n">
-        <v>362.0172857608395</v>
+        <v>362.0108337274779</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33695,28 +33986,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.162010763475185</v>
+        <v>-0.1511653830998975</v>
       </c>
       <c r="J8" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K8" t="n">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002031667103707613</v>
+        <v>0.00179129350230367</v>
       </c>
       <c r="M8" t="n">
-        <v>22.68258490951257</v>
+        <v>22.71102161464772</v>
       </c>
       <c r="N8" t="n">
-        <v>731.534765200444</v>
+        <v>731.4010524801821</v>
       </c>
       <c r="O8" t="n">
-        <v>27.04689936389094</v>
+        <v>27.04442738310764</v>
       </c>
       <c r="P8" t="n">
-        <v>331.5498826623598</v>
+        <v>331.4431441604821</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33773,28 +34064,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04705433303394727</v>
+        <v>-0.04461242772447596</v>
       </c>
       <c r="J9" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K9" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003988875689513449</v>
+        <v>0.0003659902305276352</v>
       </c>
       <c r="M9" t="n">
-        <v>13.86450000657551</v>
+        <v>13.77816986399255</v>
       </c>
       <c r="N9" t="n">
-        <v>327.412563009554</v>
+        <v>324.2957084877025</v>
       </c>
       <c r="O9" t="n">
-        <v>18.09454511750859</v>
+        <v>18.00821225129531</v>
       </c>
       <c r="P9" t="n">
-        <v>343.9532925598048</v>
+        <v>343.9300076766821</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33851,28 +34142,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05614484000608224</v>
+        <v>0.09154905683699836</v>
       </c>
       <c r="J10" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K10" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004690976560305371</v>
+        <v>0.00124678355732355</v>
       </c>
       <c r="M10" t="n">
-        <v>15.09834430032421</v>
+        <v>15.17946102655478</v>
       </c>
       <c r="N10" t="n">
-        <v>386.4774937211428</v>
+        <v>390.5354852755116</v>
       </c>
       <c r="O10" t="n">
-        <v>19.65903084389317</v>
+        <v>19.76197068299393</v>
       </c>
       <c r="P10" t="n">
-        <v>350.2203845902458</v>
+        <v>349.8734833709682</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33929,28 +34220,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2540160413393079</v>
+        <v>-0.2127505304128254</v>
       </c>
       <c r="J11" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K11" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006301680119223607</v>
+        <v>0.004458944753518823</v>
       </c>
       <c r="M11" t="n">
-        <v>18.77373095597418</v>
+        <v>18.82456656789997</v>
       </c>
       <c r="N11" t="n">
-        <v>602.4999351226229</v>
+        <v>605.1949561728046</v>
       </c>
       <c r="O11" t="n">
-        <v>24.54587409571358</v>
+        <v>24.60071048105734</v>
       </c>
       <c r="P11" t="n">
-        <v>368.471643631235</v>
+        <v>368.0762688259952</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34001,28 +34292,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.167484844108702</v>
+        <v>-1.185450108303112</v>
       </c>
       <c r="J12" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K12" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03547154055989798</v>
+        <v>0.03685110094417055</v>
       </c>
       <c r="M12" t="n">
-        <v>40.70012540662071</v>
+        <v>40.59210952339289</v>
       </c>
       <c r="N12" t="n">
-        <v>2236.959203477762</v>
+        <v>2227.285904900445</v>
       </c>
       <c r="O12" t="n">
-        <v>47.29650307874529</v>
+        <v>47.19412998351008</v>
       </c>
       <c r="P12" t="n">
-        <v>350.8512326709057</v>
+        <v>351.0241407904624</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34079,28 +34370,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6100486312914633</v>
+        <v>-0.686852265375542</v>
       </c>
       <c r="J13" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K13" t="n">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007527800995840384</v>
+        <v>0.009695069142836354</v>
       </c>
       <c r="M13" t="n">
-        <v>47.40334158196837</v>
+        <v>47.14903075151907</v>
       </c>
       <c r="N13" t="n">
-        <v>2883.892131069646</v>
+        <v>2863.47705882341</v>
       </c>
       <c r="O13" t="n">
-        <v>53.70188200677557</v>
+        <v>53.51146661065654</v>
       </c>
       <c r="P13" t="n">
-        <v>322.4864952377175</v>
+        <v>323.24051522577</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34151,28 +34442,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-2.07129103847327</v>
+        <v>-2.127705038561618</v>
       </c>
       <c r="J14" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K14" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05602049950005938</v>
+        <v>0.06019320420800578</v>
       </c>
       <c r="M14" t="n">
-        <v>50.63770446345534</v>
+        <v>50.24484396132515</v>
       </c>
       <c r="N14" t="n">
-        <v>4209.182446101519</v>
+        <v>4163.136534837786</v>
       </c>
       <c r="O14" t="n">
-        <v>64.87821241450415</v>
+        <v>64.52237235903362</v>
       </c>
       <c r="P14" t="n">
-        <v>350.5497009138494</v>
+        <v>351.1113854682642</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34210,7 +34501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O611"/>
+  <dimension ref="A1:O616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71467,11 +71758,7 @@
           <t>2025-05-30 22:05:30+00:00</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>-37.20778275379022,174.61477496045742</t>
-        </is>
-      </c>
+      <c r="B608" t="inlineStr"/>
       <c r="C608" t="inlineStr">
         <is>
           <t>-37.207314649142795,174.61388576603</t>
@@ -71609,11 +71896,7 @@
           <t>2025-06-15 22:05:40+00:00</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>-37.20775631223693,174.61484964783662</t>
-        </is>
-      </c>
+      <c r="B610" t="inlineStr"/>
       <c r="C610" t="inlineStr">
         <is>
           <t>-37.20730772097475,174.61390533581272</t>
@@ -71686,11 +71969,7 @@
           <t>2025-07-01 22:05:47+00:00</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>-37.20777725555041,174.61479049091875</t>
-        </is>
-      </c>
+      <c r="B611" t="inlineStr"/>
       <c r="C611" t="inlineStr">
         <is>
           <t>-37.20722271100136,174.61414545983786</t>
@@ -71750,6 +72029,375 @@
       <c r="O611" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-37.20812115784165,174.61381908090863</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-37.20733260592612,174.61383504399925</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-37.20685717914931,174.61296650786286</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-37.206297129346,174.6123369874203</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-37.20561241461865,174.6120595956565</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-37.204974350487475,174.61165041232528</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-37.204193505465746,174.6116477550784</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-37.20355813420203,174.6112319721912</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>-37.2029922703161,174.61060584647745</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>-37.202390494325584,174.6100861216834</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr"/>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>-37.20064806578151,174.61064733307046</t>
+        </is>
+      </c>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>-37.19999079577327,174.61029240090107</t>
+        </is>
+      </c>
+      <c r="O612" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-37.20803623669721,174.61405895788596</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-37.20694767613357,174.612710878328</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-37.2063013683188,174.61232501342607</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-37.20558600824727,174.61213418636328</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-37.20489726284773,174.61186816314813</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-37.204247590077266,174.61149163932097</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-37.203548575225625,174.61126027179336</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>-37.20304766725498,174.6104412890478</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>-37.20241081195793,174.6100257676975</t>
+        </is>
+      </c>
+      <c r="L613" t="inlineStr"/>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>-37.20058206450101,174.61084338166572</t>
+        </is>
+      </c>
+      <c r="N613" t="inlineStr">
+        <is>
+          <t>-37.19993059782581,174.61047121125688</t>
+        </is>
+      </c>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-37.20805696888554,174.61400039579433</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-37.207278873730644,174.6139868195982</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-37.20688524046726,174.61288724244966</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-37.20627639240369,174.61239556381372</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-37.205578640715586,174.61215499757304</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-37.20487554589424,174.61192950713018</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-37.204224019646546,174.6115596756981</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-37.20353361740086,174.61130455477465</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>-37.20300981878013,174.6105537186031</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>-37.20238212023629,174.61011099706917</t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr"/>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>-37.2005965612516,174.61080032098192</t>
+        </is>
+      </c>
+      <c r="N614" t="inlineStr">
+        <is>
+          <t>-37.199853680797624,174.6106996819521</t>
+        </is>
+      </c>
+      <c r="O614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-37.20809648249128,174.61388878162998</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-37.20733113928349,174.61383918678737</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-37.2068170218311,174.61307994075088</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-37.20620931831272,174.6125850296597</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-37.20552907391204,174.6122950095148</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-37.20494977835628,174.61171982182927</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-37.20399701437562,174.6122149217103</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>-37.20350473005599,174.61139007623137</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>-37.20286681362594,174.61097851406907</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>-37.20221240400037,174.61061513777042</t>
+        </is>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>-37.20137332386483,174.61080029630295</t>
+        </is>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>-37.20066182683755,174.61060645740196</t>
+        </is>
+      </c>
+      <c r="N615" t="inlineStr">
+        <is>
+          <t>-37.200030774591,174.61017364830693</t>
+        </is>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-37.20812884034292,174.613797380034</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-37.207351633873486,174.61378129618856</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-37.20683944972795,174.61301658843726</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-37.206222100142256,174.61254892460028</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-37.20553169997193,174.61228759166832</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-37.20488103244996,174.6119140092418</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-37.20408361529568,174.6119649516306</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>-37.203507558026885,174.61138170398817</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>-37.20287162277026,174.6109642286498</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>-37.20229974238527,174.61035570087546</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>-37.20141417159744,174.6106789615764</t>
+        </is>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>-37.200655554266014,174.6106250893769</t>
+        </is>
+      </c>
+      <c r="N616" t="inlineStr">
+        <is>
+          <t>-37.20006085741951,174.61008429032586</t>
+        </is>
+      </c>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O616"/>
+  <dimension ref="A1:O619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27108,6 +27108,143 @@
         </is>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:12:23+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>350.3544444444445</v>
+      </c>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="n">
+        <v>361.6527272727273</v>
+      </c>
+      <c r="E617" t="n">
+        <v>361.4933333333333</v>
+      </c>
+      <c r="F617" t="n">
+        <v>351.79</v>
+      </c>
+      <c r="G617" t="n">
+        <v>349.5757142857143</v>
+      </c>
+      <c r="H617" t="n">
+        <v>348.0064516129032</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>362.4628571428572</v>
+      </c>
+      <c r="K617" t="n">
+        <v>382.3233333333333</v>
+      </c>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
+      <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>340.7862962962963</v>
+      </c>
+      <c r="C618" t="n">
+        <v>304.388947368421</v>
+      </c>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="n">
+        <v>354.6788888888889</v>
+      </c>
+      <c r="F618" t="n">
+        <v>348.37</v>
+      </c>
+      <c r="G618" t="n">
+        <v>340.7285714285715</v>
+      </c>
+      <c r="H618" t="n">
+        <v>324.3522580645161</v>
+      </c>
+      <c r="I618" t="n">
+        <v>335.8233333333333</v>
+      </c>
+      <c r="J618" t="n">
+        <v>357.3642857142857</v>
+      </c>
+      <c r="K618" t="n">
+        <v>381.7288888888889</v>
+      </c>
+      <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
+      <c r="N618" t="n">
+        <v>290.49</v>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>332.9218518518518</v>
+      </c>
+      <c r="C619" t="n">
+        <v>304.6715789473685</v>
+      </c>
+      <c r="D619" t="n">
+        <v>331.5654545454545</v>
+      </c>
+      <c r="E619" t="n">
+        <v>343.7855555555556</v>
+      </c>
+      <c r="F619" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="G619" t="n">
+        <v>342.7528571428572</v>
+      </c>
+      <c r="H619" t="n">
+        <v>319.6758064516129</v>
+      </c>
+      <c r="I619" t="n">
+        <v>331.8033333333333</v>
+      </c>
+      <c r="J619" t="n">
+        <v>335.7914285714286</v>
+      </c>
+      <c r="K619" t="n">
+        <v>342.7255555555556</v>
+      </c>
+      <c r="L619" t="n">
+        <v>296.275</v>
+      </c>
+      <c r="M619" t="n">
+        <v>282.8639130434782</v>
+      </c>
+      <c r="N619" t="n">
+        <v>295.9139130434783</v>
+      </c>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27119,7 +27256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B623"/>
+  <dimension ref="A1:B626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33357,6 +33494,36 @@
       </c>
       <c r="B623" t="n">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -33530,28 +33697,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.334854230093794</v>
+        <v>-0.3422783183634972</v>
       </c>
       <c r="J2" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01751459831560298</v>
+        <v>0.01850604429945923</v>
       </c>
       <c r="M2" t="n">
-        <v>14.37979134293697</v>
+        <v>14.34082666893933</v>
       </c>
       <c r="N2" t="n">
-        <v>368.0032062756991</v>
+        <v>365.9958280905259</v>
       </c>
       <c r="O2" t="n">
-        <v>19.18340966240619</v>
+        <v>19.1310174347975</v>
       </c>
       <c r="P2" t="n">
-        <v>355.8685108906815</v>
+        <v>355.9416962815068</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33602,28 +33769,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.369115090772562</v>
+        <v>0.3447876289732958</v>
       </c>
       <c r="J3" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008086360283620531</v>
+        <v>0.007105211976147996</v>
       </c>
       <c r="M3" t="n">
-        <v>26.81366089846498</v>
+        <v>26.80069868509189</v>
       </c>
       <c r="N3" t="n">
-        <v>1015.502185165376</v>
+        <v>1014.367385481741</v>
       </c>
       <c r="O3" t="n">
-        <v>31.86694502404295</v>
+        <v>31.84913476818078</v>
       </c>
       <c r="P3" t="n">
-        <v>323.0076887083633</v>
+        <v>323.2376673145856</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33680,28 +33847,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1525412541067521</v>
+        <v>0.1437430849866967</v>
       </c>
       <c r="J4" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004115242274588038</v>
+        <v>0.003670975517978015</v>
       </c>
       <c r="M4" t="n">
-        <v>14.43213510779053</v>
+        <v>14.43521973448834</v>
       </c>
       <c r="N4" t="n">
-        <v>333.6583045586163</v>
+        <v>333.7355006784589</v>
       </c>
       <c r="O4" t="n">
-        <v>18.26631611898295</v>
+        <v>18.26842906980398</v>
       </c>
       <c r="P4" t="n">
-        <v>353.9117698513569</v>
+        <v>353.9968505812727</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33758,28 +33925,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2569075256646549</v>
+        <v>0.2448981926014654</v>
       </c>
       <c r="J5" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K5" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01448849210091241</v>
+        <v>0.01330234308018274</v>
       </c>
       <c r="M5" t="n">
-        <v>12.86614409208233</v>
+        <v>12.84582102074152</v>
       </c>
       <c r="N5" t="n">
-        <v>266.2126897183128</v>
+        <v>265.5083148815873</v>
       </c>
       <c r="O5" t="n">
-        <v>16.3160255490825</v>
+        <v>16.29442588376735</v>
       </c>
       <c r="P5" t="n">
-        <v>356.88177150613</v>
+        <v>356.9979069242465</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33836,28 +34003,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07729074150966803</v>
+        <v>0.06172249931764175</v>
       </c>
       <c r="J6" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K6" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001118091758741113</v>
+        <v>0.0007195010061177287</v>
       </c>
       <c r="M6" t="n">
-        <v>13.66044651931919</v>
+        <v>13.658081062268</v>
       </c>
       <c r="N6" t="n">
-        <v>313.3523982719684</v>
+        <v>312.7638820529048</v>
       </c>
       <c r="O6" t="n">
-        <v>17.70176257529087</v>
+        <v>17.68513166625866</v>
       </c>
       <c r="P6" t="n">
-        <v>356.029446651118</v>
+        <v>356.1803698246698</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33914,28 +34081,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01311729628654082</v>
+        <v>-0.00850725330841509</v>
       </c>
       <c r="J7" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K7" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L7" t="n">
-        <v>4.080296889064083e-05</v>
+        <v>1.724162553362607e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.42569839840744</v>
+        <v>12.46633831390514</v>
       </c>
       <c r="N7" t="n">
-        <v>250.1694224385411</v>
+        <v>250.7062282424282</v>
       </c>
       <c r="O7" t="n">
-        <v>15.81674500137563</v>
+        <v>15.83370544889693</v>
       </c>
       <c r="P7" t="n">
-        <v>362.0108337274779</v>
+        <v>362.2193535020953</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33986,28 +34153,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1511653830998975</v>
+        <v>-0.1470226693212811</v>
       </c>
       <c r="J8" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K8" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00179129350230367</v>
+        <v>0.001716121399070958</v>
       </c>
       <c r="M8" t="n">
-        <v>22.71102161464772</v>
+        <v>22.62329185784319</v>
       </c>
       <c r="N8" t="n">
-        <v>731.4010524801821</v>
+        <v>727.3643523540956</v>
       </c>
       <c r="O8" t="n">
-        <v>27.04442738310764</v>
+        <v>26.9696932195028</v>
       </c>
       <c r="P8" t="n">
-        <v>331.4431441604821</v>
+        <v>331.4020852719837</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34064,28 +34231,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04461242772447596</v>
+        <v>-0.05162016222839312</v>
       </c>
       <c r="J9" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K9" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003659902305276352</v>
+        <v>0.0004936211661968892</v>
       </c>
       <c r="M9" t="n">
-        <v>13.77816986399255</v>
+        <v>13.75553348931725</v>
       </c>
       <c r="N9" t="n">
-        <v>324.2957084877025</v>
+        <v>323.258719824994</v>
       </c>
       <c r="O9" t="n">
-        <v>18.00821225129531</v>
+        <v>17.97939709292261</v>
       </c>
       <c r="P9" t="n">
-        <v>343.9300076766821</v>
+        <v>343.9976417767708</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34142,28 +34309,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09154905683699836</v>
+        <v>0.09107097088187782</v>
       </c>
       <c r="J10" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K10" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00124678355732355</v>
+        <v>0.001246913084616885</v>
       </c>
       <c r="M10" t="n">
-        <v>15.17946102655478</v>
+        <v>15.15006944718314</v>
       </c>
       <c r="N10" t="n">
-        <v>390.5354852755116</v>
+        <v>388.8828452889782</v>
       </c>
       <c r="O10" t="n">
-        <v>19.76197068299393</v>
+        <v>19.72011270984469</v>
       </c>
       <c r="P10" t="n">
-        <v>349.8734833709682</v>
+        <v>349.8783339849667</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34220,28 +34387,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2127505304128254</v>
+        <v>-0.2050477414798322</v>
       </c>
       <c r="J11" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K11" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004458944753518823</v>
+        <v>0.004180640268714786</v>
       </c>
       <c r="M11" t="n">
-        <v>18.82456656789997</v>
+        <v>18.82304819549541</v>
       </c>
       <c r="N11" t="n">
-        <v>605.1949561728046</v>
+        <v>603.6979725278145</v>
       </c>
       <c r="O11" t="n">
-        <v>24.60071048105734</v>
+        <v>24.5702660247669</v>
       </c>
       <c r="P11" t="n">
-        <v>368.0762688259952</v>
+        <v>368.0022760339419</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34292,28 +34459,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.185450108303112</v>
+        <v>-1.196521993835721</v>
       </c>
       <c r="J12" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K12" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03685110094417055</v>
+        <v>0.03767356297567215</v>
       </c>
       <c r="M12" t="n">
-        <v>40.59210952339289</v>
+        <v>40.55101590439823</v>
       </c>
       <c r="N12" t="n">
-        <v>2227.285904900445</v>
+        <v>2222.910282974375</v>
       </c>
       <c r="O12" t="n">
-        <v>47.19412998351008</v>
+        <v>47.14774950063232</v>
       </c>
       <c r="P12" t="n">
-        <v>351.0241407904624</v>
+        <v>351.1312391995666</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34370,28 +34537,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.686852265375542</v>
+        <v>-0.6968048915073529</v>
       </c>
       <c r="J13" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K13" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009695069142836354</v>
+        <v>0.01001723445751934</v>
       </c>
       <c r="M13" t="n">
-        <v>47.14903075151907</v>
+        <v>47.07441068061203</v>
       </c>
       <c r="N13" t="n">
-        <v>2863.47705882341</v>
+        <v>2857.55724775583</v>
       </c>
       <c r="O13" t="n">
-        <v>53.51146661065654</v>
+        <v>53.45612451118983</v>
       </c>
       <c r="P13" t="n">
-        <v>323.24051522577</v>
+        <v>323.3388710971662</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34442,28 +34609,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-2.127705038561618</v>
+        <v>-2.130136969689499</v>
       </c>
       <c r="J14" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K14" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06019320420800578</v>
+        <v>0.06089782965123569</v>
       </c>
       <c r="M14" t="n">
-        <v>50.24484396132515</v>
+        <v>49.97674473039368</v>
       </c>
       <c r="N14" t="n">
-        <v>4163.136534837786</v>
+        <v>4139.759573308903</v>
       </c>
       <c r="O14" t="n">
-        <v>64.52237235903362</v>
+        <v>64.34096341607656</v>
       </c>
       <c r="P14" t="n">
-        <v>351.1113854682642</v>
+        <v>351.135721488373</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34501,7 +34668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O616"/>
+  <dimension ref="A1:O619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72401,6 +72568,205 @@
         </is>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:12:23+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-37.208157030644905,174.6137177503395</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-37.20688367874338,174.6128916538904</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-37.20622580824869,174.6125384502386</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-37.20553312242081,174.61228357366792</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-37.20486774591562,174.6119515397368</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-37.20420545881533,174.61161325168817</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>-37.202932863055665,174.61078231561393</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>-37.20233989626019,174.61023642384689</t>
+        </is>
+      </c>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
+      <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-37.20812213183227,174.61381632966382</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-37.20733209912815,174.6138364755386</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-37.206200953786876,174.6126086570602</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-37.205520648633566,174.61231880843545</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-37.20483547782524,174.61204268727096</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-37.20412073840066,174.61185779664277</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>-37.20350189039869,174.61139848306996</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>-37.20291503982864,174.6108352592662</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>-37.20233781826704,174.6102425965344</t>
+        </is>
+      </c>
+      <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
+      <c r="N618" t="inlineStr">
+        <is>
+          <t>-37.200031662197254,174.6101710117667</t>
+        </is>
+      </c>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-37.20809344703946,174.61389735589157</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-37.20733313000126,174.61383356365735</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-37.20677393988375,174.6132016344055</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-37.20616122222624,174.61272088713955</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-37.20547097222134,174.6124591292335</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-37.20484286098712,174.61202183210992</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-37.20410398905342,174.61190614329513</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-37.203487797276026,174.61144020588898</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>-37.20283962669747,174.61105927189735</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>-37.20220147403975,174.61064760483652</t>
+        </is>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>-37.20137669725941,174.6107902759391</t>
+        </is>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>-37.20066741241799,174.61058986604775</t>
+        </is>
+      </c>
+      <c r="N619" t="inlineStr">
+        <is>
+          <t>-37.200050622608174,174.61011469182168</t>
+        </is>
+      </c>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O619"/>
+  <dimension ref="A1:O621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27245,6 +27245,106 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>350.9511111111111</v>
+      </c>
+      <c r="C620" t="n">
+        <v>314.2331578947368</v>
+      </c>
+      <c r="D620" t="n">
+        <v>348.0154545454546</v>
+      </c>
+      <c r="E620" t="n">
+        <v>355.9233333333333</v>
+      </c>
+      <c r="F620" t="n">
+        <v>346.81</v>
+      </c>
+      <c r="G620" t="n">
+        <v>352.7542857142857</v>
+      </c>
+      <c r="H620" t="n">
+        <v>291.9632258064516</v>
+      </c>
+      <c r="I620" t="n">
+        <v>329.91</v>
+      </c>
+      <c r="J620" t="n">
+        <v>339.6471428571429</v>
+      </c>
+      <c r="K620" t="n">
+        <v>352.3633333333333</v>
+      </c>
+      <c r="L620" t="n">
+        <v>302.475</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+      <c r="N620" t="n">
+        <v>299.63</v>
+      </c>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>346.1481481481481</v>
+      </c>
+      <c r="C621" t="n">
+        <v>319.1626315789474</v>
+      </c>
+      <c r="D621" t="n">
+        <v>329.6527272727272</v>
+      </c>
+      <c r="E621" t="n">
+        <v>336.8844444444445</v>
+      </c>
+      <c r="F621" t="n">
+        <v>334.31</v>
+      </c>
+      <c r="G621" t="n">
+        <v>344.7457142857143</v>
+      </c>
+      <c r="H621" t="n">
+        <v>297.111935483871</v>
+      </c>
+      <c r="I621" t="n">
+        <v>339.0266666666667</v>
+      </c>
+      <c r="J621" t="n">
+        <v>337.5928571428572</v>
+      </c>
+      <c r="K621" t="n">
+        <v>343.7044444444444</v>
+      </c>
+      <c r="L621" t="n">
+        <v>304.005</v>
+      </c>
+      <c r="M621" t="n">
+        <v>281.8817391304348</v>
+      </c>
+      <c r="N621" t="n">
+        <v>303.3717391304348</v>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27256,7 +27356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B626"/>
+  <dimension ref="A1:B628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33524,6 +33624,26 @@
       </c>
       <c r="B626" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -34668,7 +34788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O619"/>
+  <dimension ref="A1:O621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72767,6 +72887,156 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-37.20815920692107,174.61371160296122</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-37.207368004953615,174.6137350530944</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-37.20683393891426,174.6130321549023</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-37.20620549267744,174.61259583599082</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-37.20551495883246,174.61233488043072</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-37.20487933906878,174.61191879254093</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>-37.20400473228254,174.61219264436593</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>-37.203481159714094,174.6114598564317</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>-37.202853105308165,174.6110192341791</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>-37.20223516501339,174.6105475268627</t>
+        </is>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>-37.20139837086291,174.6107258963775</t>
+        </is>
+      </c>
+      <c r="M620" t="inlineStr"/>
+      <c r="N620" t="inlineStr">
+        <is>
+          <t>-37.20006361294434,174.61007610530632</t>
+        </is>
+      </c>
+      <c r="O620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-37.20814168863205,174.61376108724758</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-37.2073859847101,174.61368426592017</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-37.206766963468255,174.61322134065315</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-37.20613605155613,174.6127919867325</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-37.205469367400624,174.61246366235454</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-37.2048501295163,174.612001300737</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-37.20402317321096,174.6121394155008</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>-37.20351312048034,174.61136523626826</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>-37.20284592404186,174.61104056587374</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>-37.2022048959651,174.61063744013063</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>-37.20140371934366,174.61071000915726</t>
+        </is>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>-37.20066397899617,174.61060006465192</t>
+        </is>
+      </c>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>-37.200076692940456,174.61003725241426</t>
+        </is>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -33817,28 +33817,28 @@
         <v>0.168</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3422783183634972</v>
+        <v>-0.3409862939171896</v>
       </c>
       <c r="J2" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K2" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01850604429945923</v>
+        <v>0.01853164545008079</v>
       </c>
       <c r="M2" t="n">
-        <v>14.34082666893933</v>
+        <v>14.28375104288286</v>
       </c>
       <c r="N2" t="n">
-        <v>365.9958280905259</v>
+        <v>364.319363387808</v>
       </c>
       <c r="O2" t="n">
-        <v>19.1310174347975</v>
+        <v>19.08715178825296</v>
       </c>
       <c r="P2" t="n">
-        <v>355.9416962815068</v>
+        <v>355.9289569907386</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33889,28 +33889,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.3447876289732958</v>
+        <v>0.3314911455372316</v>
       </c>
       <c r="J3" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K3" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007105211976147996</v>
+        <v>0.006626447106027999</v>
       </c>
       <c r="M3" t="n">
-        <v>26.80069868509189</v>
+        <v>26.73590446208043</v>
       </c>
       <c r="N3" t="n">
-        <v>1014.367385481741</v>
+        <v>1010.706882591076</v>
       </c>
       <c r="O3" t="n">
-        <v>31.84913476818078</v>
+        <v>31.79161654573539</v>
       </c>
       <c r="P3" t="n">
-        <v>323.2376673145856</v>
+        <v>323.3635722433966</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33967,28 +33967,28 @@
         <v>0.0611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1437430849866967</v>
+        <v>0.1291603265184943</v>
       </c>
       <c r="J4" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003670975517978015</v>
+        <v>0.002974833778995323</v>
       </c>
       <c r="M4" t="n">
-        <v>14.43521973448834</v>
+        <v>14.45534758538294</v>
       </c>
       <c r="N4" t="n">
-        <v>333.7355006784589</v>
+        <v>334.1721004901125</v>
       </c>
       <c r="O4" t="n">
-        <v>18.26842906980398</v>
+        <v>18.28037473604173</v>
       </c>
       <c r="P4" t="n">
-        <v>353.9968505812727</v>
+        <v>354.1379396647185</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34045,28 +34045,28 @@
         <v>0.0486</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2448981926014654</v>
+        <v>0.2317658434378283</v>
       </c>
       <c r="J5" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K5" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01330234308018274</v>
+        <v>0.01195961237556187</v>
       </c>
       <c r="M5" t="n">
-        <v>12.84582102074152</v>
+        <v>12.85931870546864</v>
       </c>
       <c r="N5" t="n">
-        <v>265.5083148815873</v>
+        <v>265.9756575934591</v>
       </c>
       <c r="O5" t="n">
-        <v>16.29442588376735</v>
+        <v>16.30876014887273</v>
       </c>
       <c r="P5" t="n">
-        <v>356.9979069242465</v>
+        <v>357.125116430201</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34123,28 +34123,28 @@
         <v>0.0525</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06172249931764175</v>
+        <v>0.04817760488830709</v>
       </c>
       <c r="J6" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K6" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007195010061177287</v>
+        <v>0.000440303637231021</v>
       </c>
       <c r="M6" t="n">
-        <v>13.658081062268</v>
+        <v>13.67436931642947</v>
       </c>
       <c r="N6" t="n">
-        <v>312.7638820529048</v>
+        <v>312.8464180623735</v>
       </c>
       <c r="O6" t="n">
-        <v>17.68513166625866</v>
+        <v>17.687464998195</v>
       </c>
       <c r="P6" t="n">
-        <v>356.1803698246698</v>
+        <v>356.3118970788618</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34201,28 +34201,28 @@
         <v>0.037</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00850725330841509</v>
+        <v>-0.01901943652388858</v>
       </c>
       <c r="J7" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K7" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L7" t="n">
-        <v>1.724162553362607e-05</v>
+        <v>8.664195610097458e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.46633831390514</v>
+        <v>12.47102638263178</v>
       </c>
       <c r="N7" t="n">
-        <v>250.7062282424282</v>
+        <v>250.4384196922663</v>
       </c>
       <c r="O7" t="n">
-        <v>15.83370544889693</v>
+        <v>15.82524627588039</v>
       </c>
       <c r="P7" t="n">
-        <v>362.2193535020953</v>
+        <v>362.3209398913231</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34273,28 +34273,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1470226693212811</v>
+        <v>-0.1756376173657163</v>
       </c>
       <c r="J8" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K8" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001716121399070958</v>
+        <v>0.002452988973310366</v>
       </c>
       <c r="M8" t="n">
-        <v>22.62329185784319</v>
+        <v>22.67626644965499</v>
       </c>
       <c r="N8" t="n">
-        <v>727.3643523540956</v>
+        <v>729.039161162209</v>
       </c>
       <c r="O8" t="n">
-        <v>26.9696932195028</v>
+        <v>27.00072519696849</v>
       </c>
       <c r="P8" t="n">
-        <v>331.4020852719837</v>
+        <v>331.6870315861487</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34351,28 +34351,28 @@
         <v>0.1416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05162016222839312</v>
+        <v>-0.05795595554961671</v>
       </c>
       <c r="J9" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K9" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004936211661968892</v>
+        <v>0.0006267349151088952</v>
       </c>
       <c r="M9" t="n">
-        <v>13.75553348931725</v>
+        <v>13.72982036144123</v>
       </c>
       <c r="N9" t="n">
-        <v>323.258719824994</v>
+        <v>322.24646570559</v>
       </c>
       <c r="O9" t="n">
-        <v>17.97939709292261</v>
+        <v>17.95122462969003</v>
       </c>
       <c r="P9" t="n">
-        <v>343.9976417767708</v>
+        <v>344.0588635455133</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34429,28 +34429,28 @@
         <v>0.0819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09107097088187782</v>
+        <v>0.08045354980346527</v>
       </c>
       <c r="J10" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K10" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001246913084616885</v>
+        <v>0.0009796085401344579</v>
       </c>
       <c r="M10" t="n">
-        <v>15.15006944718314</v>
+        <v>15.14616350541454</v>
       </c>
       <c r="N10" t="n">
-        <v>388.8828452889782</v>
+        <v>388.0097350758787</v>
       </c>
       <c r="O10" t="n">
-        <v>19.72011270984469</v>
+        <v>19.69796271384121</v>
       </c>
       <c r="P10" t="n">
-        <v>349.8783339849667</v>
+        <v>349.9832138232142</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34507,28 +34507,28 @@
         <v>0.0517</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2050477414798322</v>
+        <v>-0.2167548115759426</v>
       </c>
       <c r="J11" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K11" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004180640268714786</v>
+        <v>0.004702180840058356</v>
       </c>
       <c r="M11" t="n">
-        <v>18.82304819549541</v>
+        <v>18.81341993065992</v>
       </c>
       <c r="N11" t="n">
-        <v>603.6979725278145</v>
+        <v>602.0246137930982</v>
       </c>
       <c r="O11" t="n">
-        <v>24.5702660247669</v>
+        <v>24.5361898793007</v>
       </c>
       <c r="P11" t="n">
-        <v>368.0022760339419</v>
+        <v>368.1153445756352</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34579,28 +34579,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.196521993835721</v>
+        <v>-1.211801464284639</v>
       </c>
       <c r="J12" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K12" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03767356297567215</v>
+        <v>0.03894836528277312</v>
       </c>
       <c r="M12" t="n">
-        <v>40.55101590439823</v>
+        <v>40.42949354457603</v>
       </c>
       <c r="N12" t="n">
-        <v>2222.910282974375</v>
+        <v>2212.71167221777</v>
       </c>
       <c r="O12" t="n">
-        <v>47.14774950063232</v>
+        <v>47.0394693020422</v>
       </c>
       <c r="P12" t="n">
-        <v>351.1312391995666</v>
+        <v>351.2791333654151</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34657,28 +34657,28 @@
         <v>0.1949</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6968048915073529</v>
+        <v>-0.707062144703766</v>
       </c>
       <c r="J13" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K13" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01001723445751934</v>
+        <v>0.01035405122665978</v>
       </c>
       <c r="M13" t="n">
-        <v>47.07441068061203</v>
+        <v>47.00138957900329</v>
       </c>
       <c r="N13" t="n">
-        <v>2857.55724775583</v>
+        <v>2851.75859725749</v>
       </c>
       <c r="O13" t="n">
-        <v>53.45612451118983</v>
+        <v>53.40185949250728</v>
       </c>
       <c r="P13" t="n">
-        <v>323.3388710971662</v>
+        <v>323.4403579987677</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34729,28 +34729,28 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-2.130136969689499</v>
+        <v>-2.124433096225761</v>
       </c>
       <c r="J14" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K14" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06089782965123569</v>
+        <v>0.06115901728347306</v>
       </c>
       <c r="M14" t="n">
-        <v>49.97674473039368</v>
+        <v>49.73066887607185</v>
       </c>
       <c r="N14" t="n">
-        <v>4139.759573308903</v>
+        <v>4116.780460094184</v>
       </c>
       <c r="O14" t="n">
-        <v>64.34096341607656</v>
+        <v>64.16214195375794</v>
       </c>
       <c r="P14" t="n">
-        <v>351.135721488373</v>
+        <v>351.0784556434937</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0196/nzd0196.xlsx
+++ b/data/nzd0196/nzd0196.xlsx
@@ -33808,13 +33808,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.135</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1131</v>
+        <v>0.0529</v>
       </c>
       <c r="H2" t="n">
-        <v>0.168</v>
+        <v>0.0809</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3410059129566327</v>
@@ -33885,9 +33885,15 @@
       <c r="E3" t="n">
         <v>0.9166665336590062</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0496</v>
+      </c>
       <c r="I3" t="n">
         <v>0.3315037942967043</v>
       </c>
@@ -33958,13 +33964,13 @@
         <v>0.8333330673180124</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0498</v>
+        <v>0.0381</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0611</v>
+        <v>0.0451</v>
       </c>
       <c r="I4" t="n">
         <v>0.129161770637843</v>
@@ -34036,13 +34042,13 @@
         <v>0.7499996009770185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0431</v>
+        <v>0.0388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0486</v>
+        <v>0.0424</v>
       </c>
       <c r="I5" t="n">
         <v>0.2317726601723009</v>
@@ -34114,13 +34120,13 @@
         <v>0.6666661346347982</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0446</v>
+        <v>0.0433</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0525</v>
+        <v>0.0465</v>
       </c>
       <c r="I6" t="n">
         <v>0.0481776048883072</v>
@@ -34192,13 +34198,13 @@
         <v>0.5833326682938044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.032</v>
+        <v>0.0428</v>
       </c>
       <c r="H7" t="n">
-        <v>0.037</v>
+        <v>0.0484</v>
       </c>
       <c r="I7" t="n">
         <v>-0.01902491502794315</v>
@@ -34269,9 +34275,15 @@
       <c r="E8" t="n">
         <v>0.4999992019528104</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0339</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0425</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.1756230336737162</v>
       </c>
@@ -34342,13 +34354,13 @@
         <v>0.416667331703777</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1009</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1416</v>
+        <v>0.0916</v>
       </c>
       <c r="I9" t="n">
         <v>-0.05795882599685185</v>
@@ -34420,13 +34432,13 @@
         <v>0.3333338653653692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0608</v>
+        <v>0.0624</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0819</v>
+        <v>0.1205</v>
       </c>
       <c r="I10" t="n">
         <v>0.08047126233760182</v>
@@ -34498,13 +34510,13 @@
         <v>0.2500003990246139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0376</v>
+        <v>0.0432</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0517</v>
+        <v>0.0626</v>
       </c>
       <c r="I11" t="n">
         <v>-0.216746363167719</v>
@@ -34575,9 +34587,15 @@
       <c r="E12" t="n">
         <v>0.1666669326826846</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0463</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07920000000000001</v>
+      </c>
       <c r="I12" t="n">
         <v>-1.211781833889237</v>
       </c>
@@ -34648,13 +34666,13 @@
         <v>0.08333346634192924</v>
       </c>
       <c r="F13" t="n">
-        <v>0.115</v>
+        <v>0.075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0794</v>
+        <v>0.0546</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1949</v>
+        <v>0.133</v>
       </c>
       <c r="I13" t="n">
         <v>-0.7070501106563947</v>
@@ -34725,9 +34743,15 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I14" t="n">
         <v>-2.124423027401402</v>
       </c>
